--- a/dados_5_16_18_GRE.xlsx
+++ b/dados_5_16_18_GRE.xlsx
@@ -285,9 +285,6 @@
     <t>NNL-7286</t>
   </si>
   <si>
-    <t>KIQ-8720</t>
-  </si>
-  <si>
     <t>KIQ-8680</t>
   </si>
   <si>
@@ -352,6 +349,9 @@
   </si>
   <si>
     <t>SIMÕES</t>
+  </si>
+  <si>
+    <t>KZQ-8720</t>
   </si>
 </sst>
 </file>
@@ -897,8 +897,8 @@
   </sheetPr>
   <dimension ref="A1:AA1025"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -927,7 +927,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -965,7 +965,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="8"/>
@@ -1003,7 +1003,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="8"/>
@@ -1041,7 +1041,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="8"/>
@@ -1079,7 +1079,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="8"/>
@@ -1117,7 +1117,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="8"/>
@@ -1152,10 +1152,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="8"/>
@@ -1190,10 +1190,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="8"/>
@@ -1231,7 +1231,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="8"/>
@@ -1269,7 +1269,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="8"/>
@@ -1307,7 +1307,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="8"/>
@@ -1345,7 +1345,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="8"/>
@@ -1383,7 +1383,7 @@
         <v>16</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="8"/>
@@ -1421,7 +1421,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="8"/>
@@ -1459,7 +1459,7 @@
         <v>17</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="8"/>
@@ -1497,7 +1497,7 @@
         <v>17</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="8"/>
@@ -1535,7 +1535,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="8"/>
@@ -1573,7 +1573,7 @@
         <v>19</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="8"/>
@@ -1611,7 +1611,7 @@
         <v>19</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="8"/>
@@ -1649,7 +1649,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="8"/>
@@ -1687,7 +1687,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="8"/>
@@ -1725,7 +1725,7 @@
         <v>22</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="8"/>
@@ -1763,7 +1763,7 @@
         <v>22</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="8"/>
@@ -1801,7 +1801,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="8"/>
@@ -1839,7 +1839,7 @@
         <v>23</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="8"/>
@@ -1877,7 +1877,7 @@
         <v>24</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="8"/>
@@ -1915,7 +1915,7 @@
         <v>24</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="8"/>
@@ -1953,7 +1953,7 @@
         <v>25</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="8"/>
@@ -1991,7 +1991,7 @@
         <v>25</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="8"/>
@@ -2029,7 +2029,7 @@
         <v>25</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="8"/>
@@ -2067,7 +2067,7 @@
         <v>28</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="8"/>
@@ -2105,7 +2105,7 @@
         <v>29</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="8"/>
@@ -2143,7 +2143,7 @@
         <v>30</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="8"/>
@@ -2181,7 +2181,7 @@
         <v>30</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="8"/>
@@ -2219,7 +2219,7 @@
         <v>31</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="4"/>
@@ -2258,7 +2258,7 @@
         <v>32</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
@@ -2288,7 +2288,7 @@
         <v>64</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="28" t="s">
         <v>11</v>
@@ -2297,7 +2297,7 @@
         <v>65</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="4"/>
@@ -2327,7 +2327,7 @@
         <v>64</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="28" t="s">
         <v>11</v>
@@ -2336,7 +2336,7 @@
         <v>66</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="4"/>
@@ -2366,7 +2366,7 @@
         <v>64</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" s="28" t="s">
         <v>11</v>
@@ -2375,7 +2375,7 @@
         <v>67</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="4"/>
@@ -2405,7 +2405,7 @@
         <v>64</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>6</v>
@@ -2414,7 +2414,7 @@
         <v>68</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="4"/>
@@ -2444,7 +2444,7 @@
         <v>64</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="28" t="s">
         <v>8</v>
@@ -2453,7 +2453,7 @@
         <v>68</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="4"/>
@@ -2483,7 +2483,7 @@
         <v>64</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="28" t="s">
         <v>11</v>
@@ -2492,7 +2492,7 @@
         <v>68</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="4"/>
@@ -2522,7 +2522,7 @@
         <v>64</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="28" t="s">
         <v>6</v>
@@ -2531,7 +2531,7 @@
         <v>69</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="4"/>
@@ -2561,7 +2561,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="28" t="s">
         <v>8</v>
@@ -2570,7 +2570,7 @@
         <v>69</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="4"/>
@@ -2600,7 +2600,7 @@
         <v>64</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="28" t="s">
         <v>6</v>
@@ -2609,7 +2609,7 @@
         <v>70</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="4"/>
@@ -2639,7 +2639,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="28" t="s">
         <v>8</v>
@@ -2648,7 +2648,7 @@
         <v>70</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="4"/>
@@ -2678,7 +2678,7 @@
         <v>64</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="28" t="s">
         <v>6</v>
@@ -2687,7 +2687,7 @@
         <v>71</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="4"/>
@@ -2717,7 +2717,7 @@
         <v>64</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="28" t="s">
         <v>11</v>
@@ -2726,7 +2726,7 @@
         <v>71</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="4"/>
@@ -2756,7 +2756,7 @@
         <v>64</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="28" t="s">
         <v>6</v>
@@ -2765,7 +2765,7 @@
         <v>72</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="4"/>
@@ -2795,7 +2795,7 @@
         <v>64</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="28" t="s">
         <v>8</v>
@@ -2804,7 +2804,7 @@
         <v>72</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="4"/>
@@ -2834,16 +2834,16 @@
         <v>64</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C51" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="4"/>
@@ -2873,16 +2873,16 @@
         <v>64</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C52" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="4"/>
@@ -2912,16 +2912,16 @@
         <v>64</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C53" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="4"/>
@@ -2951,16 +2951,16 @@
         <v>64</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="4"/>
@@ -2990,16 +2990,16 @@
         <v>64</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C55" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="4"/>
@@ -3029,16 +3029,16 @@
         <v>64</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C56" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="4"/>
@@ -3068,16 +3068,16 @@
         <v>64</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C57" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="8"/>
@@ -3106,16 +3106,16 @@
         <v>64</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="8"/>
@@ -3144,16 +3144,16 @@
         <v>64</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C59" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="8"/>
@@ -3182,16 +3182,16 @@
         <v>64</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C60" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="8"/>
@@ -3220,16 +3220,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="8"/>
@@ -3258,16 +3258,16 @@
         <v>64</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C62" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="8"/>
@@ -3296,16 +3296,16 @@
         <v>64</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C63" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="8"/>
@@ -3334,16 +3334,16 @@
         <v>64</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C64" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="8"/>
@@ -3372,16 +3372,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C65" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="8"/>
@@ -3410,16 +3410,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C66" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="8"/>
@@ -3448,16 +3448,16 @@
         <v>64</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C67" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D67" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="8"/>
@@ -3486,16 +3486,16 @@
         <v>64</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C68" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="8"/>
@@ -3524,16 +3524,16 @@
         <v>64</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C69" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="8"/>
@@ -3562,16 +3562,16 @@
         <v>64</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C70" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="8"/>
@@ -3600,16 +3600,16 @@
         <v>64</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C71" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="8"/>
@@ -3638,16 +3638,16 @@
         <v>64</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C72" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="8"/>
@@ -3685,7 +3685,7 @@
         <v>35</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="8"/>
@@ -3723,7 +3723,7 @@
         <v>35</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="8"/>
@@ -3761,7 +3761,7 @@
         <v>36</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="8"/>
@@ -3799,7 +3799,7 @@
         <v>36</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="8"/>
@@ -3837,7 +3837,7 @@
         <v>37</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="8"/>
@@ -3875,7 +3875,7 @@
         <v>37</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="8"/>
@@ -3913,7 +3913,7 @@
         <v>37</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="8"/>
@@ -3951,7 +3951,7 @@
         <v>39</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="8"/>
@@ -3989,7 +3989,7 @@
         <v>39</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="8"/>
@@ -4027,7 +4027,7 @@
         <v>42</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="8"/>
@@ -4065,7 +4065,7 @@
         <v>44</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="8"/>
@@ -4103,7 +4103,7 @@
         <v>44</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="8"/>
@@ -4141,7 +4141,7 @@
         <v>47</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="8"/>
@@ -4179,7 +4179,7 @@
         <v>47</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="8"/>
@@ -4217,7 +4217,7 @@
         <v>49</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="8"/>
@@ -4255,7 +4255,7 @@
         <v>49</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="8"/>
@@ -4293,7 +4293,7 @@
         <v>49</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="8"/>
@@ -4331,7 +4331,7 @@
         <v>50</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="8"/>
@@ -4369,7 +4369,7 @@
         <v>50</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="8"/>
@@ -4407,7 +4407,7 @@
         <v>50</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="8"/>
@@ -4445,7 +4445,7 @@
         <v>51</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="8"/>
@@ -4483,7 +4483,7 @@
         <v>51</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="8"/>
@@ -4521,7 +4521,7 @@
         <v>52</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="8"/>
@@ -4559,7 +4559,7 @@
         <v>52</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="8"/>
@@ -4597,7 +4597,7 @@
         <v>54</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="8"/>
@@ -4635,7 +4635,7 @@
         <v>56</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="8"/>
@@ -4673,7 +4673,7 @@
         <v>56</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="8"/>
@@ -4711,7 +4711,7 @@
         <v>57</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="8"/>
@@ -4749,7 +4749,7 @@
         <v>59</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="8"/>
@@ -4787,7 +4787,7 @@
         <v>60</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="8"/>
@@ -4825,7 +4825,7 @@
         <v>61</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="8"/>

--- a/dados_5_16_18_GRE.xlsx
+++ b/dados_5_16_18_GRE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="95">
   <si>
     <t>GRE</t>
   </si>
@@ -306,9 +306,6 @@
     <t>HYU-3037</t>
   </si>
   <si>
-    <t>KIQ-8710</t>
-  </si>
-  <si>
     <t>NNL-9356</t>
   </si>
   <si>
@@ -358,7 +355,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +399,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -582,7 +586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -668,13 +672,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -895,10 +905,10 @@
   <sheetPr>
     <tabColor rgb="FFFF00FF"/>
   </sheetPr>
-  <dimension ref="A1:AA1025"/>
+  <dimension ref="A1:AA1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -927,7 +937,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -965,7 +975,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="8"/>
@@ -1003,7 +1013,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="8"/>
@@ -1041,7 +1051,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="8"/>
@@ -1079,7 +1089,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="8"/>
@@ -1117,7 +1127,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="8"/>
@@ -1152,12 +1162,12 @@
         <v>6</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="F7" s="30"/>
       <c r="G7" s="8"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1190,12 +1200,12 @@
         <v>8</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="F8" s="30"/>
       <c r="G8" s="8"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -1231,7 +1241,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="8"/>
@@ -1269,7 +1279,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="8"/>
@@ -1307,7 +1317,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="8"/>
@@ -1345,7 +1355,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="8"/>
@@ -1383,7 +1393,7 @@
         <v>16</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="8"/>
@@ -1421,7 +1431,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="8"/>
@@ -1459,7 +1469,7 @@
         <v>17</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="8"/>
@@ -1497,7 +1507,7 @@
         <v>17</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="8"/>
@@ -1535,7 +1545,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="8"/>
@@ -1573,7 +1583,7 @@
         <v>19</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="8"/>
@@ -1611,7 +1621,7 @@
         <v>19</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="8"/>
@@ -1649,7 +1659,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="8"/>
@@ -1687,7 +1697,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="8"/>
@@ -1725,7 +1735,7 @@
         <v>22</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="8"/>
@@ -1763,7 +1773,7 @@
         <v>22</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="8"/>
@@ -1801,7 +1811,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="8"/>
@@ -1839,7 +1849,7 @@
         <v>23</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="8"/>
@@ -1877,7 +1887,7 @@
         <v>24</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="8"/>
@@ -1915,7 +1925,7 @@
         <v>24</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="8"/>
@@ -1953,7 +1963,7 @@
         <v>25</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="8"/>
@@ -1991,7 +2001,7 @@
         <v>25</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="8"/>
@@ -2029,7 +2039,7 @@
         <v>25</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="8"/>
@@ -2067,7 +2077,7 @@
         <v>28</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="8"/>
@@ -2105,7 +2115,7 @@
         <v>29</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="8"/>
@@ -2143,7 +2153,7 @@
         <v>30</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="8"/>
@@ -2181,7 +2191,7 @@
         <v>30</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="8"/>
@@ -2219,7 +2229,7 @@
         <v>31</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="4"/>
@@ -2258,7 +2268,7 @@
         <v>32</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
@@ -2288,18 +2298,18 @@
         <v>64</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="27" t="s">
         <v>65</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" s="9"/>
+        <v>87</v>
+      </c>
+      <c r="F37" s="32"/>
       <c r="G37" s="4"/>
       <c r="H37" s="8"/>
       <c r="I37" s="4"/>
@@ -2327,7 +2337,7 @@
         <v>64</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="28" t="s">
         <v>11</v>
@@ -2336,7 +2346,7 @@
         <v>66</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="4"/>
@@ -2366,7 +2376,7 @@
         <v>64</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C39" s="28" t="s">
         <v>11</v>
@@ -2375,7 +2385,7 @@
         <v>67</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="4"/>
@@ -2405,7 +2415,7 @@
         <v>64</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>6</v>
@@ -2414,7 +2424,7 @@
         <v>68</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="4"/>
@@ -2444,7 +2454,7 @@
         <v>64</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" s="28" t="s">
         <v>8</v>
@@ -2453,7 +2463,7 @@
         <v>68</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="4"/>
@@ -2483,7 +2493,7 @@
         <v>64</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C42" s="28" t="s">
         <v>11</v>
@@ -2492,7 +2502,7 @@
         <v>68</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="4"/>
@@ -2522,7 +2532,7 @@
         <v>64</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43" s="28" t="s">
         <v>6</v>
@@ -2531,7 +2541,7 @@
         <v>69</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="4"/>
@@ -2561,7 +2571,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C44" s="28" t="s">
         <v>8</v>
@@ -2570,7 +2580,7 @@
         <v>69</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="4"/>
@@ -2600,7 +2610,7 @@
         <v>64</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C45" s="28" t="s">
         <v>6</v>
@@ -2609,7 +2619,7 @@
         <v>70</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="4"/>
@@ -2639,7 +2649,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46" s="28" t="s">
         <v>8</v>
@@ -2648,7 +2658,7 @@
         <v>70</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="4"/>
@@ -2678,7 +2688,7 @@
         <v>64</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C47" s="28" t="s">
         <v>6</v>
@@ -2687,7 +2697,7 @@
         <v>71</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="4"/>
@@ -2717,7 +2727,7 @@
         <v>64</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C48" s="28" t="s">
         <v>11</v>
@@ -2726,7 +2736,7 @@
         <v>71</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="4"/>
@@ -2756,18 +2766,18 @@
         <v>64</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C49" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="27" t="s">
         <v>72</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F49" s="9"/>
+        <v>87</v>
+      </c>
+      <c r="F49" s="32"/>
       <c r="G49" s="4"/>
       <c r="H49" s="8"/>
       <c r="I49" s="4"/>
@@ -2795,18 +2805,18 @@
         <v>64</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C50" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="27" t="s">
         <v>72</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F50" s="9"/>
+        <v>87</v>
+      </c>
+      <c r="F50" s="32"/>
       <c r="G50" s="4"/>
       <c r="H50" s="8"/>
       <c r="I50" s="4"/>
@@ -2834,16 +2844,16 @@
         <v>64</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="4"/>
@@ -2873,16 +2883,16 @@
         <v>64</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="4"/>
@@ -2912,16 +2922,16 @@
         <v>64</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="4"/>
@@ -2951,7 +2961,7 @@
         <v>64</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>6</v>
@@ -2960,7 +2970,7 @@
         <v>73</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="4"/>
@@ -2990,7 +3000,7 @@
         <v>64</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="28" t="s">
         <v>8</v>
@@ -2999,7 +3009,7 @@
         <v>73</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="4"/>
@@ -3029,7 +3039,7 @@
         <v>64</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="28" t="s">
         <v>6</v>
@@ -3038,7 +3048,7 @@
         <v>74</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="4"/>
@@ -3068,7 +3078,7 @@
         <v>64</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="28" t="s">
         <v>8</v>
@@ -3077,7 +3087,7 @@
         <v>74</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="8"/>
@@ -3106,7 +3116,7 @@
         <v>64</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="28" t="s">
         <v>8</v>
@@ -3115,9 +3125,9 @@
         <v>75</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F58" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="F58" s="30"/>
       <c r="G58" s="8"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
@@ -3144,7 +3154,7 @@
         <v>64</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="28" t="s">
         <v>6</v>
@@ -3153,7 +3163,7 @@
         <v>76</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="8"/>
@@ -3182,7 +3192,7 @@
         <v>64</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="28" t="s">
         <v>8</v>
@@ -3191,7 +3201,7 @@
         <v>76</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="8"/>
@@ -3220,16 +3230,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="30" t="s">
+      <c r="D61" s="29" t="s">
         <v>77</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="8"/>
@@ -3258,7 +3268,7 @@
         <v>64</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C62" s="28" t="s">
         <v>11</v>
@@ -3267,7 +3277,7 @@
         <v>78</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="8"/>
@@ -3296,7 +3306,7 @@
         <v>64</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C63" s="28" t="s">
         <v>8</v>
@@ -3305,9 +3315,9 @@
         <v>79</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F63" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="F63" s="30"/>
       <c r="G63" s="8"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
@@ -3334,7 +3344,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C64" s="28" t="s">
         <v>11</v>
@@ -3343,9 +3353,9 @@
         <v>79</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F64" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="F64" s="33"/>
       <c r="G64" s="8"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
@@ -3372,16 +3382,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D65" s="28" t="s">
         <v>80</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="8"/>
@@ -3410,18 +3420,18 @@
         <v>64</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C66" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="28" t="s">
+      <c r="D66" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F66" s="4"/>
+      <c r="F66" s="30"/>
       <c r="G66" s="8"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -3448,7 +3458,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C67" s="28" t="s">
         <v>11</v>
@@ -3457,9 +3467,9 @@
         <v>82</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F67" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="F67" s="30"/>
       <c r="G67" s="8"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
@@ -3486,16 +3496,16 @@
         <v>64</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>88</v>
+      <c r="E68" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="8"/>
@@ -3524,16 +3534,16 @@
         <v>64</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="8"/>
@@ -3562,16 +3572,16 @@
         <v>64</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="8"/>
@@ -3600,16 +3610,16 @@
         <v>64</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D71" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="8"/>
@@ -3634,20 +3644,20 @@
       <c r="Z71" s="4"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B72" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C72" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="28" t="s">
-        <v>85</v>
+      <c r="A72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="8"/>
@@ -3675,17 +3685,17 @@
       <c r="A73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="15" t="s">
+      <c r="C73" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="17" t="s">
         <v>35</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="8"/>
@@ -3716,14 +3726,14 @@
       <c r="B74" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C74" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>35</v>
+      <c r="C74" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="8"/>
@@ -3755,13 +3765,13 @@
         <v>34</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="8"/>
@@ -3792,14 +3802,14 @@
       <c r="B76" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C76" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>36</v>
+      <c r="C76" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="8"/>
@@ -3830,14 +3840,14 @@
       <c r="B77" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="17" t="s">
-        <v>6</v>
+      <c r="C77" s="18" t="s">
+        <v>8</v>
       </c>
       <c r="D77" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="8"/>
@@ -3869,13 +3879,13 @@
         <v>34</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D78" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="8"/>
@@ -3903,17 +3913,17 @@
       <c r="A79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B79" s="16" t="s">
-        <v>34</v>
+      <c r="B79" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>37</v>
+        <v>6</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="8"/>
@@ -3942,16 +3952,16 @@
         <v>33</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D80" s="18" t="s">
         <v>39</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="8"/>
@@ -3980,16 +3990,16 @@
         <v>33</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C81" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="18" t="s">
-        <v>39</v>
+      <c r="D81" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="8"/>
@@ -4018,16 +4028,16 @@
         <v>33</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>8</v>
+        <v>43</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="8"/>
@@ -4055,17 +4065,17 @@
       <c r="A83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>6</v>
+      <c r="B83" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>8</v>
       </c>
       <c r="D83" s="17" t="s">
         <v>44</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="8"/>
@@ -4093,17 +4103,17 @@
       <c r="A84" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C84" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>44</v>
+      <c r="B84" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="8"/>
@@ -4131,17 +4141,17 @@
       <c r="A85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B85" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>6</v>
+      <c r="B85" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>8</v>
       </c>
       <c r="D85" s="18" t="s">
         <v>47</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="8"/>
@@ -4170,16 +4180,16 @@
         <v>33</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="8"/>
@@ -4211,13 +4221,13 @@
         <v>48</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D87" s="21" t="s">
         <v>49</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="8"/>
@@ -4248,14 +4258,14 @@
       <c r="B88" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C88" s="11" t="s">
-        <v>8</v>
+      <c r="C88" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="D88" s="21" t="s">
         <v>49</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="8"/>
@@ -4287,13 +4297,13 @@
         <v>48</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="21" t="s">
-        <v>49</v>
+        <v>26</v>
+      </c>
+      <c r="D89" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="8"/>
@@ -4325,13 +4335,13 @@
         <v>48</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D90" s="25" t="s">
         <v>50</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="8"/>
@@ -4363,13 +4373,13 @@
         <v>48</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D91" s="25" t="s">
         <v>50</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="8"/>
@@ -4400,14 +4410,14 @@
       <c r="B92" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C92" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="25" t="s">
-        <v>50</v>
+      <c r="C92" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="8"/>
@@ -4438,14 +4448,14 @@
       <c r="B93" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C93" s="11" t="s">
-        <v>6</v>
+      <c r="C93" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="D93" s="17" t="s">
         <v>51</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="8"/>
@@ -4476,14 +4486,14 @@
       <c r="B94" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C94" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>51</v>
+      <c r="C94" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="8"/>
@@ -4514,14 +4524,14 @@
       <c r="B95" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C95" s="11" t="s">
-        <v>6</v>
+      <c r="C95" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="D95" s="21" t="s">
         <v>52</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="8"/>
@@ -4549,17 +4559,17 @@
       <c r="A96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B96" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D96" s="21" t="s">
-        <v>52</v>
+      <c r="B96" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="8"/>
@@ -4588,16 +4598,16 @@
         <v>33</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="8"/>
@@ -4629,13 +4639,13 @@
         <v>55</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D98" s="23" t="s">
         <v>56</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="8"/>
@@ -4670,10 +4680,10 @@
         <v>8</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="8"/>
@@ -4701,17 +4711,17 @@
       <c r="A100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B100" s="22" t="s">
-        <v>55</v>
+      <c r="B100" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="C100" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="23" t="s">
-        <v>57</v>
+      <c r="D100" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="8"/>
@@ -4746,10 +4756,10 @@
         <v>8</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="8"/>
@@ -4784,10 +4794,10 @@
         <v>8</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="8"/>
@@ -4812,21 +4822,11 @@
       <c r="Z102" s="4"/>
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B103" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C103" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="9"/>
       <c r="F103" s="4"/>
       <c r="G103" s="8"/>
       <c r="H103" s="4"/>
@@ -29629,33 +29629,12 @@
       <c r="Y988" s="4"/>
       <c r="Z988" s="4"/>
     </row>
-    <row r="989" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="4"/>
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
       <c r="D989" s="4"/>
       <c r="E989" s="9"/>
-      <c r="F989" s="4"/>
-      <c r="G989" s="8"/>
-      <c r="H989" s="4"/>
-      <c r="I989" s="4"/>
-      <c r="J989" s="4"/>
-      <c r="K989" s="4"/>
-      <c r="L989" s="4"/>
-      <c r="M989" s="4"/>
-      <c r="N989" s="4"/>
-      <c r="O989" s="4"/>
-      <c r="P989" s="4"/>
-      <c r="Q989" s="4"/>
-      <c r="R989" s="4"/>
-      <c r="S989" s="4"/>
-      <c r="T989" s="4"/>
-      <c r="U989" s="4"/>
-      <c r="V989" s="4"/>
-      <c r="W989" s="4"/>
-      <c r="X989" s="4"/>
-      <c r="Y989" s="4"/>
-      <c r="Z989" s="4"/>
     </row>
     <row r="990" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="4"/>
@@ -29767,7 +29746,6 @@
       <c r="B1005" s="4"/>
       <c r="C1005" s="4"/>
       <c r="D1005" s="4"/>
-      <c r="E1005" s="9"/>
     </row>
     <row r="1006" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1006" s="4"/>
@@ -29883,12 +29861,6 @@
       <c r="C1024" s="4"/>
       <c r="D1024" s="4"/>
     </row>
-    <row r="1025" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1025" s="4"/>
-      <c r="B1025" s="4"/>
-      <c r="C1025" s="4"/>
-      <c r="D1025" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dados_5_16_18_GRE.xlsx
+++ b/dados_5_16_18_GRE.xlsx
@@ -294,9 +294,6 @@
     <t>OUA-7785</t>
   </si>
   <si>
-    <t>ETL-0532</t>
-  </si>
-  <si>
     <t>NQY-7405</t>
   </si>
   <si>
@@ -349,6 +346,9 @@
   </si>
   <si>
     <t>KZQ-8720</t>
+  </si>
+  <si>
+    <t>NMR-9010</t>
   </si>
 </sst>
 </file>
@@ -907,8 +907,8 @@
   </sheetPr>
   <dimension ref="A1:AA1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -937,7 +937,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -975,7 +975,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="8"/>
@@ -1013,7 +1013,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="8"/>
@@ -1051,7 +1051,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="8"/>
@@ -1089,7 +1089,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="8"/>
@@ -1127,7 +1127,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="8"/>
@@ -1162,10 +1162,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="8"/>
@@ -1200,10 +1200,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="8"/>
@@ -1241,7 +1241,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="8"/>
@@ -1279,7 +1279,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="8"/>
@@ -1317,7 +1317,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="8"/>
@@ -1355,7 +1355,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="8"/>
@@ -1393,7 +1393,7 @@
         <v>16</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="8"/>
@@ -1431,7 +1431,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="8"/>
@@ -1469,7 +1469,7 @@
         <v>17</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="8"/>
@@ -1507,7 +1507,7 @@
         <v>17</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="8"/>
@@ -1545,7 +1545,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="8"/>
@@ -1583,7 +1583,7 @@
         <v>19</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="8"/>
@@ -1621,7 +1621,7 @@
         <v>19</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="8"/>
@@ -1659,7 +1659,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="8"/>
@@ -1697,7 +1697,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="8"/>
@@ -1735,7 +1735,7 @@
         <v>22</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="8"/>
@@ -1773,7 +1773,7 @@
         <v>22</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="8"/>
@@ -1811,7 +1811,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="8"/>
@@ -1849,7 +1849,7 @@
         <v>23</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="8"/>
@@ -1887,7 +1887,7 @@
         <v>24</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="8"/>
@@ -1925,7 +1925,7 @@
         <v>24</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="8"/>
@@ -1963,7 +1963,7 @@
         <v>25</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="8"/>
@@ -2001,7 +2001,7 @@
         <v>25</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="8"/>
@@ -2039,7 +2039,7 @@
         <v>25</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="8"/>
@@ -2077,7 +2077,7 @@
         <v>28</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="8"/>
@@ -2115,7 +2115,7 @@
         <v>29</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="8"/>
@@ -2153,7 +2153,7 @@
         <v>30</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="8"/>
@@ -2191,7 +2191,7 @@
         <v>30</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="8"/>
@@ -2229,7 +2229,7 @@
         <v>31</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="4"/>
@@ -2268,7 +2268,7 @@
         <v>32</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
@@ -2298,7 +2298,7 @@
         <v>64</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37" s="28" t="s">
         <v>11</v>
@@ -2307,7 +2307,7 @@
         <v>65</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F37" s="32"/>
       <c r="G37" s="4"/>
@@ -2337,7 +2337,7 @@
         <v>64</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" s="28" t="s">
         <v>11</v>
@@ -2346,7 +2346,7 @@
         <v>66</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="4"/>
@@ -2376,7 +2376,7 @@
         <v>64</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" s="28" t="s">
         <v>11</v>
@@ -2385,7 +2385,7 @@
         <v>67</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="4"/>
@@ -2415,7 +2415,7 @@
         <v>64</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>6</v>
@@ -2424,7 +2424,7 @@
         <v>68</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="4"/>
@@ -2454,7 +2454,7 @@
         <v>64</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" s="28" t="s">
         <v>8</v>
@@ -2463,7 +2463,7 @@
         <v>68</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="4"/>
@@ -2493,7 +2493,7 @@
         <v>64</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C42" s="28" t="s">
         <v>11</v>
@@ -2502,7 +2502,7 @@
         <v>68</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="4"/>
@@ -2532,7 +2532,7 @@
         <v>64</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C43" s="28" t="s">
         <v>6</v>
@@ -2541,7 +2541,7 @@
         <v>69</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="4"/>
@@ -2571,7 +2571,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C44" s="28" t="s">
         <v>8</v>
@@ -2580,7 +2580,7 @@
         <v>69</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="4"/>
@@ -2610,7 +2610,7 @@
         <v>64</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C45" s="28" t="s">
         <v>6</v>
@@ -2619,7 +2619,7 @@
         <v>70</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="4"/>
@@ -2649,7 +2649,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" s="28" t="s">
         <v>8</v>
@@ -2658,7 +2658,7 @@
         <v>70</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="4"/>
@@ -2688,7 +2688,7 @@
         <v>64</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C47" s="28" t="s">
         <v>6</v>
@@ -2697,7 +2697,7 @@
         <v>71</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="4"/>
@@ -2727,7 +2727,7 @@
         <v>64</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C48" s="28" t="s">
         <v>11</v>
@@ -2736,7 +2736,7 @@
         <v>71</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="4"/>
@@ -2766,7 +2766,7 @@
         <v>64</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C49" s="28" t="s">
         <v>6</v>
@@ -2775,7 +2775,7 @@
         <v>72</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F49" s="32"/>
       <c r="G49" s="4"/>
@@ -2805,7 +2805,7 @@
         <v>64</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C50" s="28" t="s">
         <v>8</v>
@@ -2814,7 +2814,7 @@
         <v>72</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F50" s="32"/>
       <c r="G50" s="4"/>
@@ -2844,16 +2844,16 @@
         <v>64</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C51" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="4"/>
@@ -2883,16 +2883,16 @@
         <v>64</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C52" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="4"/>
@@ -2922,16 +2922,16 @@
         <v>64</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C53" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="4"/>
@@ -2961,7 +2961,7 @@
         <v>64</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>6</v>
@@ -2970,7 +2970,7 @@
         <v>73</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="4"/>
@@ -3000,7 +3000,7 @@
         <v>64</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C55" s="28" t="s">
         <v>8</v>
@@ -3009,7 +3009,7 @@
         <v>73</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="4"/>
@@ -3039,7 +3039,7 @@
         <v>64</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C56" s="28" t="s">
         <v>6</v>
@@ -3048,7 +3048,7 @@
         <v>74</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="4"/>
@@ -3078,7 +3078,7 @@
         <v>64</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="28" t="s">
         <v>8</v>
@@ -3087,7 +3087,7 @@
         <v>74</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="8"/>
@@ -3116,7 +3116,7 @@
         <v>64</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C58" s="28" t="s">
         <v>8</v>
@@ -3125,7 +3125,7 @@
         <v>75</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F58" s="30"/>
       <c r="G58" s="8"/>
@@ -3157,13 +3157,13 @@
         <v>91</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="29" t="s">
         <v>76</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="8"/>
@@ -3195,13 +3195,13 @@
         <v>91</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="8"/>
@@ -3233,15 +3233,15 @@
         <v>92</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E61" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F61" s="4"/>
+      <c r="F61" s="30"/>
       <c r="G61" s="8"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
@@ -3273,13 +3273,13 @@
       <c r="C62" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="28" t="s">
+      <c r="D62" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F62" s="4"/>
+      <c r="F62" s="33"/>
       <c r="G62" s="8"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -3306,18 +3306,18 @@
         <v>64</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F63" s="30"/>
+      <c r="E63" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F63" s="4"/>
       <c r="G63" s="8"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
@@ -3344,18 +3344,18 @@
         <v>64</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C64" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F64" s="33"/>
+        <v>86</v>
+      </c>
+      <c r="F64" s="30"/>
       <c r="G64" s="8"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
@@ -3382,18 +3382,18 @@
         <v>64</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C65" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E65" s="4" t="s">
+      <c r="D65" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F65" s="4"/>
+      <c r="F65" s="30"/>
       <c r="G65" s="8"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
@@ -3420,18 +3420,18 @@
         <v>64</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F66" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F66" s="4"/>
       <c r="G66" s="8"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -3458,18 +3458,18 @@
         <v>64</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F67" s="30"/>
+      <c r="E67" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F67" s="4"/>
       <c r="G67" s="8"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
@@ -3496,16 +3496,16 @@
         <v>64</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="8"/>
@@ -3534,7 +3534,7 @@
         <v>64</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C69" s="28" t="s">
         <v>8</v>
@@ -3543,7 +3543,7 @@
         <v>83</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="8"/>
@@ -3568,20 +3568,20 @@
       <c r="Z69" s="4"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B70" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C70" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="28" t="s">
-        <v>83</v>
+      <c r="A70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="8"/>
@@ -3606,20 +3606,20 @@
       <c r="Z70" s="4"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B71" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71" s="28" t="s">
+      <c r="A71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="28" t="s">
-        <v>84</v>
+      <c r="D71" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="8"/>
@@ -3647,17 +3647,17 @@
       <c r="A72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="15" t="s">
-        <v>35</v>
+      <c r="D72" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="8"/>
@@ -3688,14 +3688,14 @@
       <c r="B73" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="17" t="s">
-        <v>35</v>
+      <c r="D73" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="8"/>
@@ -3726,14 +3726,14 @@
       <c r="B74" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="18" t="s">
-        <v>36</v>
+      <c r="D74" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="8"/>
@@ -3767,11 +3767,11 @@
       <c r="C75" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="18" t="s">
-        <v>36</v>
+      <c r="D75" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="8"/>
@@ -3802,14 +3802,14 @@
       <c r="B76" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C76" s="17" t="s">
-        <v>6</v>
+      <c r="C76" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="D76" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="8"/>
@@ -3837,17 +3837,17 @@
       <c r="A77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B77" s="16" t="s">
-        <v>34</v>
+      <c r="B77" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>37</v>
+        <v>6</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="8"/>
@@ -3875,17 +3875,17 @@
       <c r="A78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B78" s="16" t="s">
-        <v>34</v>
+      <c r="B78" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>37</v>
+        <v>8</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="8"/>
@@ -3914,16 +3914,16 @@
         <v>33</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" s="18" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="8"/>
@@ -3952,16 +3952,16 @@
         <v>33</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C80" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="8"/>
@@ -3990,16 +3990,16 @@
         <v>33</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C81" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="8"/>
@@ -4037,7 +4037,7 @@
         <v>44</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="8"/>
@@ -4075,7 +4075,7 @@
         <v>44</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="8"/>
@@ -4113,7 +4113,7 @@
         <v>47</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="8"/>
@@ -4151,7 +4151,7 @@
         <v>47</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="8"/>
@@ -4189,7 +4189,7 @@
         <v>49</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="8"/>
@@ -4227,7 +4227,7 @@
         <v>49</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="8"/>
@@ -4265,7 +4265,7 @@
         <v>49</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="8"/>
@@ -4303,7 +4303,7 @@
         <v>50</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="8"/>
@@ -4341,7 +4341,7 @@
         <v>50</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="8"/>
@@ -4379,7 +4379,7 @@
         <v>50</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="8"/>
@@ -4417,7 +4417,7 @@
         <v>51</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="8"/>
@@ -4455,7 +4455,7 @@
         <v>51</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="8"/>
@@ -4493,7 +4493,7 @@
         <v>52</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="8"/>
@@ -4531,7 +4531,7 @@
         <v>52</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="8"/>
@@ -4569,7 +4569,7 @@
         <v>54</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="8"/>
@@ -4607,7 +4607,7 @@
         <v>56</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="8"/>
@@ -4645,7 +4645,7 @@
         <v>56</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="8"/>
@@ -4683,7 +4683,7 @@
         <v>57</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="8"/>
@@ -4721,7 +4721,7 @@
         <v>59</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="8"/>
@@ -4759,7 +4759,7 @@
         <v>60</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="8"/>
@@ -4797,7 +4797,7 @@
         <v>61</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="8"/>
@@ -29579,7 +29579,6 @@
       <c r="C987" s="4"/>
       <c r="D987" s="4"/>
       <c r="E987" s="9"/>
-      <c r="F987" s="4"/>
       <c r="G987" s="8"/>
       <c r="H987" s="4"/>
       <c r="I987" s="4"/>
@@ -29607,7 +29606,6 @@
       <c r="C988" s="4"/>
       <c r="D988" s="4"/>
       <c r="E988" s="9"/>
-      <c r="F988" s="4"/>
       <c r="G988" s="8"/>
       <c r="H988" s="4"/>
       <c r="I988" s="4"/>

--- a/dados_5_16_18_GRE.xlsx
+++ b/dados_5_16_18_GRE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="94">
   <si>
     <t>GRE</t>
   </si>
@@ -286,9 +286,6 @@
   </si>
   <si>
     <t>KIQ-8680</t>
-  </si>
-  <si>
-    <t>OQF-8563</t>
   </si>
   <si>
     <t>OUA-7785</t>
@@ -905,10 +902,10 @@
   <sheetPr>
     <tabColor rgb="FFFF00FF"/>
   </sheetPr>
-  <dimension ref="A1:AA1024"/>
+  <dimension ref="A1:AA1022"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -937,7 +934,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -975,7 +972,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="8"/>
@@ -1013,7 +1010,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="8"/>
@@ -1051,7 +1048,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="8"/>
@@ -1089,7 +1086,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="8"/>
@@ -1127,7 +1124,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="8"/>
@@ -1162,10 +1159,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="8"/>
@@ -1200,10 +1197,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="8"/>
@@ -1241,7 +1238,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="8"/>
@@ -1279,7 +1276,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="8"/>
@@ -1317,7 +1314,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="8"/>
@@ -1355,7 +1352,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="8"/>
@@ -1393,7 +1390,7 @@
         <v>16</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="8"/>
@@ -1431,7 +1428,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="8"/>
@@ -1469,7 +1466,7 @@
         <v>17</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="8"/>
@@ -1507,7 +1504,7 @@
         <v>17</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="8"/>
@@ -1545,7 +1542,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="8"/>
@@ -1583,7 +1580,7 @@
         <v>19</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="8"/>
@@ -1621,7 +1618,7 @@
         <v>19</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="8"/>
@@ -1659,7 +1656,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="8"/>
@@ -1697,7 +1694,7 @@
         <v>20</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="8"/>
@@ -1735,7 +1732,7 @@
         <v>22</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="8"/>
@@ -1773,7 +1770,7 @@
         <v>22</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="8"/>
@@ -1811,7 +1808,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="8"/>
@@ -1849,7 +1846,7 @@
         <v>23</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="8"/>
@@ -1887,7 +1884,7 @@
         <v>24</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="8"/>
@@ -1925,7 +1922,7 @@
         <v>24</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="8"/>
@@ -1963,7 +1960,7 @@
         <v>25</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="8"/>
@@ -2001,7 +1998,7 @@
         <v>25</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="8"/>
@@ -2039,7 +2036,7 @@
         <v>25</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="8"/>
@@ -2077,7 +2074,7 @@
         <v>28</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="8"/>
@@ -2115,7 +2112,7 @@
         <v>29</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="8"/>
@@ -2153,7 +2150,7 @@
         <v>30</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="8"/>
@@ -2191,7 +2188,7 @@
         <v>30</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="8"/>
@@ -2229,7 +2226,7 @@
         <v>31</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="4"/>
@@ -2268,7 +2265,7 @@
         <v>32</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="4"/>
@@ -2298,7 +2295,7 @@
         <v>64</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" s="28" t="s">
         <v>11</v>
@@ -2307,7 +2304,7 @@
         <v>65</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F37" s="32"/>
       <c r="G37" s="4"/>
@@ -2337,7 +2334,7 @@
         <v>64</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38" s="28" t="s">
         <v>11</v>
@@ -2346,7 +2343,7 @@
         <v>66</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="4"/>
@@ -2376,7 +2373,7 @@
         <v>64</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" s="28" t="s">
         <v>11</v>
@@ -2385,7 +2382,7 @@
         <v>67</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="4"/>
@@ -2415,7 +2412,7 @@
         <v>64</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>6</v>
@@ -2424,7 +2421,7 @@
         <v>68</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="4"/>
@@ -2454,7 +2451,7 @@
         <v>64</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C41" s="28" t="s">
         <v>8</v>
@@ -2463,7 +2460,7 @@
         <v>68</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="4"/>
@@ -2493,7 +2490,7 @@
         <v>64</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42" s="28" t="s">
         <v>11</v>
@@ -2502,7 +2499,7 @@
         <v>68</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="4"/>
@@ -2532,7 +2529,7 @@
         <v>64</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C43" s="28" t="s">
         <v>6</v>
@@ -2541,7 +2538,7 @@
         <v>69</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="4"/>
@@ -2571,7 +2568,7 @@
         <v>64</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C44" s="28" t="s">
         <v>8</v>
@@ -2580,7 +2577,7 @@
         <v>69</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="4"/>
@@ -2610,7 +2607,7 @@
         <v>64</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C45" s="28" t="s">
         <v>6</v>
@@ -2619,7 +2616,7 @@
         <v>70</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="4"/>
@@ -2649,7 +2646,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C46" s="28" t="s">
         <v>8</v>
@@ -2658,7 +2655,7 @@
         <v>70</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="4"/>
@@ -2688,7 +2685,7 @@
         <v>64</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C47" s="28" t="s">
         <v>6</v>
@@ -2697,7 +2694,7 @@
         <v>71</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="4"/>
@@ -2727,7 +2724,7 @@
         <v>64</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C48" s="28" t="s">
         <v>11</v>
@@ -2736,7 +2733,7 @@
         <v>71</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="4"/>
@@ -2766,7 +2763,7 @@
         <v>64</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" s="28" t="s">
         <v>6</v>
@@ -2775,7 +2772,7 @@
         <v>72</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F49" s="32"/>
       <c r="G49" s="4"/>
@@ -2805,7 +2802,7 @@
         <v>64</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C50" s="28" t="s">
         <v>8</v>
@@ -2814,7 +2811,7 @@
         <v>72</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F50" s="32"/>
       <c r="G50" s="4"/>
@@ -2844,16 +2841,16 @@
         <v>64</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C51" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="4"/>
@@ -2883,16 +2880,16 @@
         <v>64</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C52" s="28" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="4"/>
@@ -2922,16 +2919,16 @@
         <v>64</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C53" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="4"/>
@@ -2961,7 +2958,7 @@
         <v>64</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>6</v>
@@ -2970,7 +2967,7 @@
         <v>73</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="4"/>
@@ -3000,7 +2997,7 @@
         <v>64</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C55" s="28" t="s">
         <v>8</v>
@@ -3009,7 +3006,7 @@
         <v>73</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="4"/>
@@ -3039,18 +3036,18 @@
         <v>64</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F56" s="9"/>
+      <c r="F56" s="30"/>
       <c r="G56" s="4"/>
       <c r="H56" s="8"/>
       <c r="I56" s="4"/>
@@ -3081,13 +3078,13 @@
         <v>90</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="28" t="s">
-        <v>74</v>
+        <v>11</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="8"/>
@@ -3119,15 +3116,15 @@
         <v>90</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F58" s="30"/>
+        <v>11</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F58" s="4"/>
       <c r="G58" s="8"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
@@ -3157,15 +3154,15 @@
         <v>91</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="E59" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F59" s="4"/>
+      <c r="F59" s="30"/>
       <c r="G59" s="8"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
@@ -3197,13 +3194,13 @@
       <c r="C60" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F60" s="4"/>
+      <c r="F60" s="33"/>
       <c r="G60" s="8"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
@@ -3230,18 +3227,18 @@
         <v>64</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F61" s="30"/>
+      <c r="E61" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F61" s="4"/>
       <c r="G61" s="8"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
@@ -3268,18 +3265,18 @@
         <v>64</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F62" s="33"/>
+        <v>85</v>
+      </c>
+      <c r="F62" s="30"/>
       <c r="G62" s="8"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -3306,18 +3303,18 @@
         <v>64</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="E63" s="4" t="s">
+      <c r="D63" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F63" s="4"/>
+      <c r="F63" s="30"/>
       <c r="G63" s="8"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
@@ -3344,18 +3341,18 @@
         <v>64</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F64" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F64" s="4"/>
       <c r="G64" s="8"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
@@ -3382,18 +3379,18 @@
         <v>64</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F65" s="30"/>
+      <c r="E65" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F65" s="4"/>
       <c r="G65" s="8"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
@@ -3420,16 +3417,16 @@
         <v>64</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="8"/>
@@ -3458,7 +3455,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="28" t="s">
         <v>8</v>
@@ -3467,7 +3464,7 @@
         <v>82</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="8"/>
@@ -3492,20 +3489,20 @@
       <c r="Z67" s="4"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B68" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C68" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="28" t="s">
-        <v>82</v>
+      <c r="A68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="8"/>
@@ -3530,20 +3527,20 @@
       <c r="Z68" s="4"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B69" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C69" s="28" t="s">
+      <c r="A69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="28" t="s">
-        <v>83</v>
+      <c r="D69" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="8"/>
@@ -3571,17 +3568,17 @@
       <c r="A70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="15" t="s">
-        <v>35</v>
+      <c r="D70" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="8"/>
@@ -3612,14 +3609,14 @@
       <c r="B71" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="17" t="s">
-        <v>35</v>
+      <c r="D71" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="8"/>
@@ -3650,14 +3647,14 @@
       <c r="B72" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="18" t="s">
-        <v>36</v>
+      <c r="D72" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="8"/>
@@ -3691,11 +3688,11 @@
       <c r="C73" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="18" t="s">
-        <v>36</v>
+      <c r="D73" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="8"/>
@@ -3726,14 +3723,14 @@
       <c r="B74" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C74" s="17" t="s">
-        <v>6</v>
+      <c r="C74" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="D74" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="8"/>
@@ -3761,17 +3758,17 @@
       <c r="A75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B75" s="16" t="s">
-        <v>34</v>
+      <c r="B75" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>37</v>
+        <v>6</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="8"/>
@@ -3799,17 +3796,17 @@
       <c r="A76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B76" s="16" t="s">
-        <v>34</v>
+      <c r="B76" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>37</v>
+        <v>8</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="8"/>
@@ -3838,16 +3835,16 @@
         <v>33</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" s="18" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="8"/>
@@ -3876,16 +3873,16 @@
         <v>33</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C78" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>93</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="8"/>
@@ -3914,16 +3911,16 @@
         <v>33</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C79" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="8"/>
@@ -3952,16 +3949,16 @@
         <v>33</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="8"/>
@@ -3989,17 +3986,17 @@
       <c r="A81" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B81" s="19" t="s">
-        <v>38</v>
+      <c r="B81" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="8"/>
@@ -4028,16 +4025,16 @@
         <v>33</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="17" t="s">
-        <v>44</v>
+      <c r="D82" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="8"/>
@@ -4071,11 +4068,11 @@
       <c r="C83" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="17" t="s">
-        <v>44</v>
+      <c r="D83" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="8"/>
@@ -4103,17 +4100,17 @@
       <c r="A84" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="19" t="s">
-        <v>46</v>
+      <c r="B84" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D84" s="18" t="s">
-        <v>47</v>
+      <c r="D84" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="8"/>
@@ -4142,16 +4139,16 @@
         <v>33</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C85" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="18" t="s">
-        <v>47</v>
+      <c r="D85" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="8"/>
@@ -4182,14 +4179,14 @@
       <c r="B86" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C86" s="11" t="s">
-        <v>6</v>
+      <c r="C86" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="D86" s="21" t="s">
         <v>49</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="8"/>
@@ -4220,14 +4217,14 @@
       <c r="B87" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C87" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="21" t="s">
-        <v>49</v>
+      <c r="C87" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="8"/>
@@ -4259,13 +4256,13 @@
         <v>48</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D88" s="21" t="s">
-        <v>49</v>
+        <v>8</v>
+      </c>
+      <c r="D88" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="8"/>
@@ -4297,13 +4294,13 @@
         <v>48</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D89" s="25" t="s">
         <v>50</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="8"/>
@@ -4334,14 +4331,14 @@
       <c r="B90" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C90" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="25" t="s">
-        <v>50</v>
+      <c r="C90" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="8"/>
@@ -4375,11 +4372,11 @@
       <c r="C91" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D91" s="25" t="s">
-        <v>50</v>
+      <c r="D91" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="8"/>
@@ -4413,11 +4410,11 @@
       <c r="C92" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="17" t="s">
-        <v>51</v>
+      <c r="D92" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="8"/>
@@ -4451,11 +4448,11 @@
       <c r="C93" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="17" t="s">
-        <v>51</v>
+      <c r="D93" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="8"/>
@@ -4483,17 +4480,17 @@
       <c r="A94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B94" s="20" t="s">
-        <v>48</v>
+      <c r="B94" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="21" t="s">
-        <v>52</v>
+        <v>8</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="8"/>
@@ -4521,17 +4518,17 @@
       <c r="A95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B95" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" s="21" t="s">
-        <v>52</v>
+      <c r="B95" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D95" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="8"/>
@@ -4560,16 +4557,16 @@
         <v>33</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C96" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C96" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D96" s="17" t="s">
-        <v>54</v>
+      <c r="D96" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="8"/>
@@ -4601,13 +4598,13 @@
         <v>55</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="8"/>
@@ -4635,17 +4632,17 @@
       <c r="A98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B98" s="22" t="s">
-        <v>55</v>
+      <c r="B98" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="C98" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D98" s="23" t="s">
-        <v>56</v>
+      <c r="D98" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="8"/>
@@ -4673,17 +4670,17 @@
       <c r="A99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="22" t="s">
-        <v>55</v>
+      <c r="B99" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="C99" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D99" s="23" t="s">
-        <v>57</v>
+      <c r="D99" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="8"/>
@@ -4718,10 +4715,10 @@
         <v>8</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="8"/>
@@ -4746,21 +4743,11 @@
       <c r="Z100" s="4"/>
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B101" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="9"/>
       <c r="F101" s="4"/>
       <c r="G101" s="8"/>
       <c r="H101" s="4"/>
@@ -4784,21 +4771,11 @@
       <c r="Z101" s="4"/>
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B102" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C102" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="9"/>
       <c r="F102" s="4"/>
       <c r="G102" s="8"/>
       <c r="H102" s="4"/>
@@ -29523,7 +29500,6 @@
       <c r="C985" s="4"/>
       <c r="D985" s="4"/>
       <c r="E985" s="9"/>
-      <c r="F985" s="4"/>
       <c r="G985" s="8"/>
       <c r="H985" s="4"/>
       <c r="I985" s="4"/>
@@ -29551,7 +29527,6 @@
       <c r="C986" s="4"/>
       <c r="D986" s="4"/>
       <c r="E986" s="9"/>
-      <c r="F986" s="4"/>
       <c r="G986" s="8"/>
       <c r="H986" s="4"/>
       <c r="I986" s="4"/>
@@ -29730,14 +29705,12 @@
       <c r="B1003" s="4"/>
       <c r="C1003" s="4"/>
       <c r="D1003" s="4"/>
-      <c r="E1003" s="9"/>
     </row>
     <row r="1004" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1004" s="4"/>
       <c r="B1004" s="4"/>
       <c r="C1004" s="4"/>
       <c r="D1004" s="4"/>
-      <c r="E1004" s="9"/>
     </row>
     <row r="1005" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1005" s="4"/>
@@ -29847,18 +29820,6 @@
       <c r="C1022" s="4"/>
       <c r="D1022" s="4"/>
     </row>
-    <row r="1023" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1023" s="4"/>
-      <c r="B1023" s="4"/>
-      <c r="C1023" s="4"/>
-      <c r="D1023" s="4"/>
-    </row>
-    <row r="1024" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1024" s="4"/>
-      <c r="B1024" s="4"/>
-      <c r="C1024" s="4"/>
-      <c r="D1024" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dados_5_16_18_GRE.xlsx
+++ b/dados_5_16_18_GRE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="113">
   <si>
     <t>GRE</t>
   </si>
@@ -347,6 +347,63 @@
   <si>
     <t>NMR-9010</t>
   </si>
+  <si>
+    <t>LNB-8308</t>
+  </si>
+  <si>
+    <t>NGI-7893</t>
+  </si>
+  <si>
+    <t>BWY-4889</t>
+  </si>
+  <si>
+    <t>HZA-2317</t>
+  </si>
+  <si>
+    <t>DCP-1236</t>
+  </si>
+  <si>
+    <t>JRJ-5917</t>
+  </si>
+  <si>
+    <t>DJE-6560</t>
+  </si>
+  <si>
+    <t>NGC-8623</t>
+  </si>
+  <si>
+    <t>NGC-9103</t>
+  </si>
+  <si>
+    <t>NQQ-5716</t>
+  </si>
+  <si>
+    <t>NQQ-7797</t>
+  </si>
+  <si>
+    <t>HZA-7062</t>
+  </si>
+  <si>
+    <t>NMR-8H77</t>
+  </si>
+  <si>
+    <t>NWT-0A46</t>
+  </si>
+  <si>
+    <t>KLI-2790</t>
+  </si>
+  <si>
+    <t>PJP-4986</t>
+  </si>
+  <si>
+    <t>NVB-8980</t>
+  </si>
+  <si>
+    <t>HZA-6952</t>
+  </si>
+  <si>
+    <t>NQQ-3877</t>
+  </si>
 </sst>
 </file>
 
@@ -405,7 +462,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,18 +495,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -543,17 +594,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -579,11 +619,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -627,9 +700,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,43 +715,79 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -902,10 +1008,10 @@
   <sheetPr>
     <tabColor rgb="FFFF00FF"/>
   </sheetPr>
-  <dimension ref="A1:AA1022"/>
+  <dimension ref="A1:AD1051"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -933,7 +1039,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="25" t="s">
         <v>83</v>
       </c>
       <c r="F1" s="4"/>
@@ -968,10 +1074,10 @@
       <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="43" t="s">
         <v>84</v>
       </c>
       <c r="F2" s="4"/>
@@ -1004,12 +1110,12 @@
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="43" t="s">
         <v>84</v>
       </c>
       <c r="F3" s="4"/>
@@ -1039,15 +1145,15 @@
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="43" t="s">
         <v>84</v>
       </c>
       <c r="F4" s="4"/>
@@ -1077,15 +1183,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="43" t="s">
         <v>84</v>
       </c>
       <c r="F5" s="4"/>
@@ -1111,19 +1217,19 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="43" t="s">
         <v>84</v>
       </c>
       <c r="F6" s="4"/>
@@ -1149,22 +1255,22 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="30"/>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="26"/>
       <c r="G7" s="8"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1187,22 +1293,22 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="30"/>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="26"/>
       <c r="G8" s="8"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -1232,15 +1338,15 @@
         <v>12</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="8"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1270,15 +1376,15 @@
         <v>12</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="26"/>
       <c r="G10" s="8"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1308,15 +1414,15 @@
         <v>12</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="26"/>
       <c r="G11" s="8"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1345,16 +1451,16 @@
       <c r="B12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="C12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="8"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1384,15 +1490,15 @@
         <v>12</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="8"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1421,16 +1527,16 @@
       <c r="B14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="C14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="8"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1459,16 +1565,16 @@
       <c r="B15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="C15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="26"/>
       <c r="G15" s="8"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1497,16 +1603,16 @@
       <c r="B16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="C16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="26"/>
       <c r="G16" s="8"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1535,16 +1641,16 @@
       <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="C17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="26"/>
       <c r="G17" s="8"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -1576,13 +1682,13 @@
       <c r="C18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="8"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1611,16 +1717,16 @@
       <c r="B19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="26"/>
       <c r="G19" s="8"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -1652,13 +1758,13 @@
       <c r="C20" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="4"/>
+      <c r="D20" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="26"/>
       <c r="G20" s="8"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -1690,13 +1796,13 @@
       <c r="C21" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="4"/>
+      <c r="D21" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="26"/>
       <c r="G21" s="8"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -1722,19 +1828,19 @@
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>21</v>
+      <c r="B22" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="D22" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="26"/>
       <c r="G22" s="8"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -1760,19 +1866,19 @@
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>21</v>
+      <c r="B23" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="26"/>
       <c r="G23" s="8"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -1798,19 +1904,19 @@
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>21</v>
+      <c r="B24" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="26"/>
       <c r="G24" s="8"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -1836,19 +1942,19 @@
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>21</v>
+      <c r="B25" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="26"/>
       <c r="G25" s="8"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -1874,19 +1980,19 @@
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="B26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="26"/>
       <c r="G26" s="8"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -1913,18 +2019,18 @@
         <v>4</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="D27" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="26"/>
       <c r="G27" s="8"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -1951,18 +2057,18 @@
         <v>4</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="D28" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="26"/>
       <c r="G28" s="8"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -1989,18 +2095,18 @@
         <v>4</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="D29" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="26"/>
       <c r="G29" s="8"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -2027,18 +2133,18 @@
         <v>4</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="26"/>
       <c r="G30" s="8"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -2065,18 +2171,18 @@
         <v>4</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="26"/>
       <c r="G31" s="8"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -2103,18 +2209,18 @@
         <v>4</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="4"/>
+      <c r="F32" s="26"/>
       <c r="G32" s="8"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -2141,18 +2247,18 @@
         <v>4</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="26"/>
       <c r="G33" s="8"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -2179,18 +2285,18 @@
         <v>4</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="4"/>
+      <c r="F34" s="26"/>
       <c r="G34" s="8"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -2217,18 +2323,18 @@
         <v>4</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="D35" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="27"/>
       <c r="G35" s="4"/>
       <c r="H35" s="8"/>
       <c r="I35" s="4"/>
@@ -2256,18 +2362,18 @@
         <v>4</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="27"/>
       <c r="G36" s="4"/>
       <c r="H36" s="8"/>
       <c r="I36" s="4"/>
@@ -2291,22 +2397,22 @@
       <c r="AA36" s="4"/>
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F37" s="32"/>
+      <c r="A37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="27"/>
       <c r="G37" s="4"/>
       <c r="H37" s="8"/>
       <c r="I37" s="4"/>
@@ -2330,22 +2436,22 @@
       <c r="AA37" s="4"/>
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="28" t="s">
+      <c r="A38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="D38" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="27"/>
       <c r="G38" s="4"/>
       <c r="H38" s="8"/>
       <c r="I38" s="4"/>
@@ -2369,22 +2475,22 @@
       <c r="AA38" s="4"/>
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="28" t="s">
+      <c r="A39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="4" t="s">
+      <c r="D39" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="27"/>
       <c r="G39" s="4"/>
       <c r="H39" s="8"/>
       <c r="I39" s="4"/>
@@ -2408,22 +2514,22 @@
       <c r="AA39" s="4"/>
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="4" t="s">
+      <c r="A40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="27"/>
       <c r="G40" s="4"/>
       <c r="H40" s="8"/>
       <c r="I40" s="4"/>
@@ -2447,22 +2553,22 @@
       <c r="AA40" s="4"/>
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="4" t="s">
+      <c r="A41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="27"/>
       <c r="G41" s="4"/>
       <c r="H41" s="8"/>
       <c r="I41" s="4"/>
@@ -2486,22 +2592,22 @@
       <c r="AA41" s="4"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" s="4" t="s">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="27"/>
       <c r="G42" s="4"/>
       <c r="H42" s="8"/>
       <c r="I42" s="4"/>
@@ -2525,22 +2631,22 @@
       <c r="AA42" s="4"/>
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="4" t="s">
+      <c r="A43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="27"/>
       <c r="G43" s="4"/>
       <c r="H43" s="8"/>
       <c r="I43" s="4"/>
@@ -2564,22 +2670,22 @@
       <c r="AA43" s="4"/>
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="28" t="s">
+      <c r="A44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44" s="4" t="s">
+      <c r="D44" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="27"/>
       <c r="G44" s="4"/>
       <c r="H44" s="8"/>
       <c r="I44" s="4"/>
@@ -2603,22 +2709,22 @@
       <c r="AA44" s="4"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="4" t="s">
+      <c r="A45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F45" s="9"/>
+      <c r="F45" s="27"/>
       <c r="G45" s="4"/>
       <c r="H45" s="8"/>
       <c r="I45" s="4"/>
@@ -2642,22 +2748,22 @@
       <c r="AA45" s="4"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E46" s="4" t="s">
+      <c r="A46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F46" s="9"/>
+      <c r="F46" s="27"/>
       <c r="G46" s="4"/>
       <c r="H46" s="8"/>
       <c r="I46" s="4"/>
@@ -2681,22 +2787,22 @@
       <c r="AA46" s="4"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="4" t="s">
+      <c r="A47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F47" s="9"/>
+      <c r="F47" s="27"/>
       <c r="G47" s="4"/>
       <c r="H47" s="8"/>
       <c r="I47" s="4"/>
@@ -2720,22 +2826,22 @@
       <c r="AA47" s="4"/>
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E48" s="4" t="s">
+      <c r="A48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="F48" s="27"/>
       <c r="G48" s="4"/>
       <c r="H48" s="8"/>
       <c r="I48" s="4"/>
@@ -2759,22 +2865,22 @@
       <c r="AA48" s="4"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F49" s="32"/>
+      <c r="A49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F49" s="27"/>
       <c r="G49" s="4"/>
       <c r="H49" s="8"/>
       <c r="I49" s="4"/>
@@ -2798,22 +2904,22 @@
       <c r="AA49" s="4"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="1" t="s">
+      <c r="B50" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="F50" s="32"/>
+      <c r="F50" s="27"/>
       <c r="G50" s="4"/>
       <c r="H50" s="8"/>
       <c r="I50" s="4"/>
@@ -2837,22 +2943,22 @@
       <c r="AA50" s="4"/>
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E51" s="4" t="s">
+      <c r="B51" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F51" s="9"/>
+      <c r="F51" s="27"/>
       <c r="G51" s="4"/>
       <c r="H51" s="8"/>
       <c r="I51" s="4"/>
@@ -2876,22 +2982,22 @@
       <c r="AA51" s="4"/>
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C52" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" s="4" t="s">
+      <c r="B52" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F52" s="9"/>
+      <c r="F52" s="27"/>
       <c r="G52" s="4"/>
       <c r="H52" s="8"/>
       <c r="I52" s="4"/>
@@ -2915,22 +3021,22 @@
       <c r="AA52" s="4"/>
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E53" s="4" t="s">
+      <c r="B53" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F53" s="9"/>
+      <c r="F53" s="27"/>
       <c r="G53" s="4"/>
       <c r="H53" s="8"/>
       <c r="I53" s="4"/>
@@ -2954,22 +3060,22 @@
       <c r="AA53" s="4"/>
     </row>
     <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E54" s="4" t="s">
+      <c r="B54" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F54" s="9"/>
+      <c r="F54" s="27"/>
       <c r="G54" s="4"/>
       <c r="H54" s="8"/>
       <c r="I54" s="4"/>
@@ -2993,22 +3099,22 @@
       <c r="AA54" s="4"/>
     </row>
     <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E55" s="4" t="s">
+      <c r="B55" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F55" s="9"/>
+      <c r="F55" s="27"/>
       <c r="G55" s="4"/>
       <c r="H55" s="8"/>
       <c r="I55" s="4"/>
@@ -3032,22 +3138,22 @@
       <c r="AA55" s="4"/>
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="26" t="s">
+      <c r="A56" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F56" s="30"/>
+      <c r="B56" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F56" s="26"/>
       <c r="G56" s="4"/>
       <c r="H56" s="8"/>
       <c r="I56" s="4"/>
@@ -3071,22 +3177,22 @@
       <c r="AA56" s="4"/>
     </row>
     <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="26" t="s">
+      <c r="A57" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="E57" s="4" t="s">
+      <c r="B57" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F57" s="4"/>
+      <c r="F57" s="26"/>
       <c r="G57" s="8"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
@@ -3109,22 +3215,22 @@
       <c r="Z57" s="4"/>
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E58" s="4" t="s">
+      <c r="B58" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F58" s="4"/>
+      <c r="F58" s="26"/>
       <c r="G58" s="8"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
@@ -3147,22 +3253,22 @@
       <c r="Z58" s="4"/>
     </row>
     <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C59" s="28" t="s">
+      <c r="B59" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F59" s="30"/>
+      <c r="D59" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F59" s="26"/>
       <c r="G59" s="8"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
@@ -3185,22 +3291,22 @@
       <c r="Z59" s="4"/>
     </row>
     <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F60" s="33"/>
+      <c r="B60" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F60" s="28"/>
       <c r="G60" s="8"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
@@ -3223,22 +3329,22 @@
       <c r="Z60" s="4"/>
     </row>
     <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C61" s="28" t="s">
+      <c r="B61" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E61" s="4" t="s">
+      <c r="D61" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F61" s="4"/>
+      <c r="F61" s="26"/>
       <c r="G61" s="8"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
@@ -3261,22 +3367,22 @@
       <c r="Z61" s="4"/>
     </row>
     <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C62" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="E62" s="1" t="s">
+      <c r="B62" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="F62" s="30"/>
+      <c r="F62" s="26"/>
       <c r="G62" s="8"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -3299,22 +3405,22 @@
       <c r="Z62" s="4"/>
     </row>
     <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E63" s="1" t="s">
+      <c r="B63" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="F63" s="30"/>
+      <c r="F63" s="26"/>
       <c r="G63" s="8"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
@@ -3337,22 +3443,22 @@
       <c r="Z63" s="4"/>
     </row>
     <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C64" s="28" t="s">
+      <c r="B64" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E64" s="4" t="s">
+      <c r="D64" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F64" s="4"/>
+      <c r="F64" s="26"/>
       <c r="G64" s="8"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
@@ -3375,22 +3481,22 @@
       <c r="Z64" s="4"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="26" t="s">
+      <c r="A65" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C65" s="28" t="s">
+      <c r="B65" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E65" s="4" t="s">
+      <c r="D65" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F65" s="4"/>
+      <c r="F65" s="26"/>
       <c r="G65" s="8"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
@@ -3413,22 +3519,22 @@
       <c r="Z65" s="4"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="26" t="s">
+      <c r="A66" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C66" s="28" t="s">
+      <c r="B66" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E66" s="4" t="s">
+      <c r="D66" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F66" s="4"/>
+      <c r="F66" s="26"/>
       <c r="G66" s="8"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -3451,22 +3557,22 @@
       <c r="Z66" s="4"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E67" s="4" t="s">
+      <c r="B67" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E67" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F67" s="4"/>
+      <c r="F67" s="26"/>
       <c r="G67" s="8"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
@@ -3489,22 +3595,22 @@
       <c r="Z67" s="4"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E68" s="4" t="s">
+      <c r="A68" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F68" s="4"/>
+      <c r="F68" s="26"/>
       <c r="G68" s="8"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
@@ -3527,22 +3633,22 @@
       <c r="Z68" s="4"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" s="17" t="s">
+      <c r="A69" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F69" s="4"/>
+      <c r="D69" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E69" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F69" s="26"/>
       <c r="G69" s="8"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
@@ -3565,22 +3671,22 @@
       <c r="Z69" s="4"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E70" s="4" t="s">
+      <c r="A70" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E70" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F70" s="4"/>
+      <c r="F70" s="26"/>
       <c r="G70" s="8"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
@@ -3603,22 +3709,22 @@
       <c r="Z70" s="4"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E71" s="4" t="s">
+      <c r="A71" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F71" s="4"/>
+      <c r="F71" s="26"/>
       <c r="G71" s="8"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
@@ -3641,22 +3747,22 @@
       <c r="Z71" s="4"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F72" s="4"/>
+      <c r="A72" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E72" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F72" s="26"/>
       <c r="G72" s="8"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
@@ -3679,22 +3785,22 @@
       <c r="Z72" s="4"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F73" s="4"/>
+      <c r="A73" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F73" s="26"/>
       <c r="G73" s="8"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
@@ -3717,22 +3823,22 @@
       <c r="Z73" s="4"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C74" s="18" t="s">
+      <c r="A74" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E74" s="4" t="s">
+      <c r="D74" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E74" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F74" s="4"/>
+      <c r="F74" s="26"/>
       <c r="G74" s="8"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
@@ -3755,22 +3861,22 @@
       <c r="Z74" s="4"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B75" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F75" s="4"/>
+      <c r="A75" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E75" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F75" s="26"/>
       <c r="G75" s="8"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
@@ -3793,22 +3899,22 @@
       <c r="Z75" s="4"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F76" s="4"/>
+      <c r="A76" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E76" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="F76" s="26"/>
       <c r="G76" s="8"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
@@ -3831,22 +3937,22 @@
       <c r="Z76" s="4"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B77" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E77" s="4" t="s">
+      <c r="A77" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E77" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F77" s="4"/>
+      <c r="F77" s="26"/>
       <c r="G77" s="8"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
@@ -3869,22 +3975,22 @@
       <c r="Z77" s="4"/>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E78" s="4" t="s">
+      <c r="A78" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E78" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F78" s="4"/>
+      <c r="F78" s="26"/>
       <c r="G78" s="8"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
@@ -3907,22 +4013,22 @@
       <c r="Z78" s="4"/>
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B79" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E79" s="4" t="s">
+      <c r="A79" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E79" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F79" s="4"/>
+      <c r="F79" s="26"/>
       <c r="G79" s="8"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
@@ -3945,22 +4051,22 @@
       <c r="Z79" s="4"/>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E80" s="4" t="s">
+      <c r="A80" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E80" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F80" s="4"/>
+      <c r="F80" s="26"/>
       <c r="G80" s="8"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
@@ -3986,19 +4092,19 @@
       <c r="A81" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B81" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F81" s="4"/>
+      <c r="B81" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E81" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="F81" s="26"/>
       <c r="G81" s="8"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
@@ -4024,19 +4130,19 @@
       <c r="A82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B82" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F82" s="4"/>
+      <c r="B82" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E82" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="F82" s="26"/>
       <c r="G82" s="8"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
@@ -4062,19 +4168,19 @@
       <c r="A83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E83" s="4" t="s">
+      <c r="B83" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E83" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F83" s="4"/>
+      <c r="F83" s="26"/>
       <c r="G83" s="8"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
@@ -4100,19 +4206,19 @@
       <c r="A84" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E84" s="4" t="s">
+      <c r="B84" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E84" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F84" s="4"/>
+      <c r="F84" s="26"/>
       <c r="G84" s="8"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
@@ -4138,19 +4244,19 @@
       <c r="A85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B85" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E85" s="4" t="s">
+      <c r="B85" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E85" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F85" s="4"/>
+      <c r="F85" s="26"/>
       <c r="G85" s="8"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
@@ -4176,19 +4282,19 @@
       <c r="A86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B86" s="20" t="s">
-        <v>48</v>
+      <c r="B86" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E86" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F86" s="4"/>
+      <c r="F86" s="26"/>
       <c r="G86" s="8"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
@@ -4214,19 +4320,19 @@
       <c r="A87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B87" s="20" t="s">
-        <v>48</v>
+      <c r="B87" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D87" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F87" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="D87" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E87" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="F87" s="26"/>
       <c r="G87" s="8"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
@@ -4252,19 +4358,19 @@
       <c r="A88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B88" s="20" t="s">
-        <v>48</v>
+      <c r="B88" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="C88" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F88" s="4"/>
+      <c r="D88" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E88" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="F88" s="26"/>
       <c r="G88" s="8"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
@@ -4290,19 +4396,19 @@
       <c r="A89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B89" s="20" t="s">
-        <v>48</v>
+      <c r="B89" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E89" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E89" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F89" s="4"/>
+      <c r="F89" s="26"/>
       <c r="G89" s="8"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
@@ -4328,19 +4434,19 @@
       <c r="A90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B90" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E90" s="4" t="s">
+      <c r="B90" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E90" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F90" s="4"/>
+      <c r="F90" s="26"/>
       <c r="G90" s="8"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
@@ -4366,19 +4472,19 @@
       <c r="A91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B91" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E91" s="4" t="s">
+      <c r="B91" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F91" s="4"/>
+      <c r="F91" s="26"/>
       <c r="G91" s="8"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
@@ -4404,19 +4510,19 @@
       <c r="A92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B92" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E92" s="4" t="s">
+      <c r="B92" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E92" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F92" s="4"/>
+      <c r="F92" s="26"/>
       <c r="G92" s="8"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
@@ -4442,19 +4548,19 @@
       <c r="A93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B93" s="20" t="s">
-        <v>48</v>
+      <c r="B93" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="C93" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E93" s="4" t="s">
+      <c r="D93" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E93" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F93" s="4"/>
+      <c r="F93" s="26"/>
       <c r="G93" s="8"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
@@ -4480,19 +4586,19 @@
       <c r="A94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B94" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E94" s="4" t="s">
+      <c r="B94" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E94" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F94" s="4"/>
+      <c r="F94" s="26"/>
       <c r="G94" s="8"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
@@ -4518,19 +4624,19 @@
       <c r="A95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B95" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C95" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D95" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E95" s="4" t="s">
+      <c r="B95" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E95" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F95" s="4"/>
+      <c r="F95" s="26"/>
       <c r="G95" s="8"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
@@ -4556,19 +4662,19 @@
       <c r="A96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B96" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C96" s="18" t="s">
+      <c r="B96" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C96" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D96" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E96" s="4" t="s">
+      <c r="D96" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E96" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F96" s="4"/>
+      <c r="F96" s="26"/>
       <c r="G96" s="8"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
@@ -4590,23 +4696,23 @@
       <c r="Y96" s="4"/>
       <c r="Z96" s="4"/>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B97" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E97" s="4" t="s">
+      <c r="B97" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E97" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F97" s="4"/>
+      <c r="F97" s="26"/>
       <c r="G97" s="8"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
@@ -4628,23 +4734,23 @@
       <c r="Y97" s="4"/>
       <c r="Z97" s="4"/>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B98" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C98" s="18" t="s">
+      <c r="B98" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C98" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D98" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E98" s="4" t="s">
+      <c r="D98" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E98" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F98" s="4"/>
+      <c r="F98" s="26"/>
       <c r="G98" s="8"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
@@ -4666,23 +4772,23 @@
       <c r="Y98" s="4"/>
       <c r="Z98" s="4"/>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C99" s="18" t="s">
+      <c r="B99" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C99" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D99" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E99" s="4" t="s">
+      <c r="D99" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="E99" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F99" s="4"/>
+      <c r="F99" s="26"/>
       <c r="G99" s="8"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
@@ -4704,23 +4810,23 @@
       <c r="Y99" s="4"/>
       <c r="Z99" s="4"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B100" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C100" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E100" s="4" t="s">
+      <c r="B100" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F100" s="4"/>
+      <c r="F100" s="26"/>
       <c r="G100" s="8"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
@@ -4742,13 +4848,23 @@
       <c r="Y100" s="4"/>
       <c r="Z100" s="4"/>
     </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="4"/>
+    <row r="101" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E101" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F101" s="26"/>
       <c r="G101" s="8"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
@@ -4770,12 +4886,22 @@
       <c r="Y101" s="4"/>
       <c r="Z101" s="4"/>
     </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="9"/>
+    <row r="102" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E102" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="F102" s="4"/>
       <c r="G102" s="8"/>
       <c r="H102" s="4"/>
@@ -4798,12 +4924,22 @@
       <c r="Y102" s="4"/>
       <c r="Z102" s="4"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="9"/>
+    <row r="103" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E103" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="F103" s="4"/>
       <c r="G103" s="8"/>
       <c r="H103" s="4"/>
@@ -4826,18 +4962,28 @@
       <c r="Y103" s="4"/>
       <c r="Z103" s="4"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="9"/>
+    <row r="104" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E104" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="F104" s="4"/>
       <c r="G104" s="8"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
+      <c r="K104" s="8"/>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
@@ -4853,19 +4999,33 @@
       <c r="X104" s="4"/>
       <c r="Y104" s="4"/>
       <c r="Z104" s="4"/>
-    </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="9"/>
+      <c r="AA104" s="4"/>
+      <c r="AB104" s="4"/>
+      <c r="AC104" s="4"/>
+      <c r="AD104" s="4"/>
+    </row>
+    <row r="105" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E105" s="43" t="s">
+        <v>85</v>
+      </c>
       <c r="F105" s="4"/>
       <c r="G105" s="8"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
+      <c r="K105" s="8"/>
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
@@ -4881,19 +5041,33 @@
       <c r="X105" s="4"/>
       <c r="Y105" s="4"/>
       <c r="Z105" s="4"/>
-    </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="9"/>
+      <c r="AA105" s="4"/>
+      <c r="AB105" s="4"/>
+      <c r="AC105" s="4"/>
+      <c r="AD105" s="4"/>
+    </row>
+    <row r="106" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E106" s="43" t="s">
+        <v>85</v>
+      </c>
       <c r="F106" s="4"/>
       <c r="G106" s="8"/>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
+      <c r="K106" s="8"/>
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
@@ -4909,13 +5083,27 @@
       <c r="X106" s="4"/>
       <c r="Y106" s="4"/>
       <c r="Z106" s="4"/>
-    </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="9"/>
+      <c r="AA106" s="4"/>
+      <c r="AB106" s="4"/>
+      <c r="AC106" s="4"/>
+      <c r="AD106" s="4"/>
+    </row>
+    <row r="107" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E107" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="F107" s="4"/>
       <c r="G107" s="8"/>
       <c r="H107" s="4"/>
@@ -4938,12 +5126,22 @@
       <c r="Y107" s="4"/>
       <c r="Z107" s="4"/>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="9"/>
+    <row r="108" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E108" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="F108" s="4"/>
       <c r="G108" s="8"/>
       <c r="H108" s="4"/>
@@ -4966,12 +5164,22 @@
       <c r="Y108" s="4"/>
       <c r="Z108" s="4"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="9"/>
+    <row r="109" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E109" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="F109" s="4"/>
       <c r="G109" s="8"/>
       <c r="H109" s="4"/>
@@ -4994,12 +5202,22 @@
       <c r="Y109" s="4"/>
       <c r="Z109" s="4"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="9"/>
+    <row r="110" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E110" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="F110" s="4"/>
       <c r="G110" s="8"/>
       <c r="H110" s="4"/>
@@ -5022,12 +5240,22 @@
       <c r="Y110" s="4"/>
       <c r="Z110" s="4"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="9"/>
+    <row r="111" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E111" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="F111" s="4"/>
       <c r="G111" s="8"/>
       <c r="H111" s="4"/>
@@ -5050,12 +5278,22 @@
       <c r="Y111" s="4"/>
       <c r="Z111" s="4"/>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="9"/>
+    <row r="112" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E112" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="F112" s="4"/>
       <c r="G112" s="8"/>
       <c r="H112" s="4"/>
@@ -5079,11 +5317,21 @@
       <c r="Z112" s="4"/>
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="9"/>
+      <c r="A113" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E113" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="F113" s="4"/>
       <c r="G113" s="8"/>
       <c r="H113" s="4"/>
@@ -5107,11 +5355,21 @@
       <c r="Z113" s="4"/>
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="9"/>
+      <c r="A114" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E114" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="F114" s="4"/>
       <c r="G114" s="8"/>
       <c r="H114" s="4"/>
@@ -5135,11 +5393,21 @@
       <c r="Z114" s="4"/>
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="9"/>
+      <c r="A115" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E115" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="F115" s="4"/>
       <c r="G115" s="8"/>
       <c r="H115" s="4"/>
@@ -5163,11 +5431,21 @@
       <c r="Z115" s="4"/>
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="9"/>
+      <c r="A116" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E116" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="F116" s="4"/>
       <c r="G116" s="8"/>
       <c r="H116" s="4"/>
@@ -5191,11 +5469,21 @@
       <c r="Z116" s="4"/>
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="9"/>
+      <c r="A117" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E117" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="F117" s="4"/>
       <c r="G117" s="8"/>
       <c r="H117" s="4"/>
@@ -5219,11 +5507,21 @@
       <c r="Z117" s="4"/>
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="9"/>
+      <c r="A118" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E118" s="43" t="s">
+        <v>85</v>
+      </c>
       <c r="F118" s="4"/>
       <c r="G118" s="8"/>
       <c r="H118" s="4"/>
@@ -5247,11 +5545,21 @@
       <c r="Z118" s="4"/>
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="9"/>
+      <c r="A119" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="E119" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="F119" s="4"/>
       <c r="G119" s="8"/>
       <c r="H119" s="4"/>
@@ -5275,11 +5583,21 @@
       <c r="Z119" s="4"/>
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="9"/>
+      <c r="A120" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="E120" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="F120" s="4"/>
       <c r="G120" s="8"/>
       <c r="H120" s="4"/>
@@ -5303,11 +5621,21 @@
       <c r="Z120" s="4"/>
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="9"/>
+      <c r="A121" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B121" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="E121" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="F121" s="4"/>
       <c r="G121" s="8"/>
       <c r="H121" s="4"/>
@@ -5331,11 +5659,21 @@
       <c r="Z121" s="4"/>
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="9"/>
+      <c r="A122" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E122" s="43" t="s">
+        <v>85</v>
+      </c>
       <c r="F122" s="4"/>
       <c r="G122" s="8"/>
       <c r="H122" s="4"/>
@@ -5359,11 +5697,21 @@
       <c r="Z122" s="4"/>
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="9"/>
+      <c r="A123" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D123" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E123" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="F123" s="4"/>
       <c r="G123" s="8"/>
       <c r="H123" s="4"/>
@@ -5387,11 +5735,21 @@
       <c r="Z123" s="4"/>
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="9"/>
+      <c r="A124" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B124" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E124" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="F124" s="4"/>
       <c r="G124" s="8"/>
       <c r="H124" s="4"/>
@@ -5415,11 +5773,21 @@
       <c r="Z124" s="4"/>
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="9"/>
+      <c r="A125" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B125" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E125" s="43" t="s">
+        <v>85</v>
+      </c>
       <c r="F125" s="4"/>
       <c r="G125" s="8"/>
       <c r="H125" s="4"/>
@@ -5443,11 +5811,21 @@
       <c r="Z125" s="4"/>
     </row>
     <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="9"/>
+      <c r="A126" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B126" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E126" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="F126" s="4"/>
       <c r="G126" s="8"/>
       <c r="H126" s="4"/>
@@ -5471,11 +5849,21 @@
       <c r="Z126" s="4"/>
     </row>
     <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="9"/>
+      <c r="A127" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E127" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="F127" s="4"/>
       <c r="G127" s="8"/>
       <c r="H127" s="4"/>
@@ -5499,11 +5887,21 @@
       <c r="Z127" s="4"/>
     </row>
     <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="9"/>
+      <c r="A128" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E128" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="F128" s="4"/>
       <c r="G128" s="8"/>
       <c r="H128" s="4"/>
@@ -5527,11 +5925,21 @@
       <c r="Z128" s="4"/>
     </row>
     <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="9"/>
+      <c r="A129" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B129" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E129" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="F129" s="4"/>
       <c r="G129" s="8"/>
       <c r="H129" s="4"/>
@@ -29416,7 +29824,6 @@
       <c r="C982" s="4"/>
       <c r="D982" s="4"/>
       <c r="E982" s="9"/>
-      <c r="F982" s="4"/>
       <c r="G982" s="8"/>
       <c r="H982" s="4"/>
       <c r="I982" s="4"/>
@@ -29444,7 +29851,6 @@
       <c r="C983" s="4"/>
       <c r="D983" s="4"/>
       <c r="E983" s="9"/>
-      <c r="F983" s="4"/>
       <c r="G983" s="8"/>
       <c r="H983" s="4"/>
       <c r="I983" s="4"/>
@@ -29472,7 +29878,6 @@
       <c r="C984" s="4"/>
       <c r="D984" s="4"/>
       <c r="E984" s="9"/>
-      <c r="F984" s="4"/>
       <c r="G984" s="8"/>
       <c r="H984" s="4"/>
       <c r="I984" s="4"/>
@@ -29527,9 +29932,6 @@
       <c r="C986" s="4"/>
       <c r="D986" s="4"/>
       <c r="E986" s="9"/>
-      <c r="G986" s="8"/>
-      <c r="H986" s="4"/>
-      <c r="I986" s="4"/>
       <c r="J986" s="4"/>
       <c r="K986" s="4"/>
       <c r="L986" s="4"/>
@@ -29554,9 +29956,6 @@
       <c r="C987" s="4"/>
       <c r="D987" s="4"/>
       <c r="E987" s="9"/>
-      <c r="G987" s="8"/>
-      <c r="H987" s="4"/>
-      <c r="I987" s="4"/>
       <c r="J987" s="4"/>
       <c r="K987" s="4"/>
       <c r="L987" s="4"/>
@@ -29581,9 +29980,6 @@
       <c r="C988" s="4"/>
       <c r="D988" s="4"/>
       <c r="E988" s="9"/>
-      <c r="G988" s="8"/>
-      <c r="H988" s="4"/>
-      <c r="I988" s="4"/>
       <c r="J988" s="4"/>
       <c r="K988" s="4"/>
       <c r="L988" s="4"/>
@@ -29705,120 +30101,323 @@
       <c r="B1003" s="4"/>
       <c r="C1003" s="4"/>
       <c r="D1003" s="4"/>
+      <c r="E1003" s="9"/>
     </row>
     <row r="1004" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1004" s="4"/>
       <c r="B1004" s="4"/>
       <c r="C1004" s="4"/>
       <c r="D1004" s="4"/>
+      <c r="E1004" s="9"/>
     </row>
     <row r="1005" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1005" s="4"/>
       <c r="B1005" s="4"/>
       <c r="C1005" s="4"/>
       <c r="D1005" s="4"/>
+      <c r="E1005" s="9"/>
     </row>
     <row r="1006" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1006" s="4"/>
       <c r="B1006" s="4"/>
       <c r="C1006" s="4"/>
       <c r="D1006" s="4"/>
+      <c r="E1006" s="9"/>
     </row>
     <row r="1007" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1007" s="4"/>
       <c r="B1007" s="4"/>
       <c r="C1007" s="4"/>
       <c r="D1007" s="4"/>
+      <c r="E1007" s="9"/>
     </row>
     <row r="1008" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1008" s="4"/>
       <c r="B1008" s="4"/>
       <c r="C1008" s="4"/>
       <c r="D1008" s="4"/>
-    </row>
-    <row r="1009" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1008" s="9"/>
+    </row>
+    <row r="1009" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1009" s="4"/>
       <c r="B1009" s="4"/>
       <c r="C1009" s="4"/>
       <c r="D1009" s="4"/>
-    </row>
-    <row r="1010" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1009" s="9"/>
+    </row>
+    <row r="1010" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1010" s="4"/>
       <c r="B1010" s="4"/>
       <c r="C1010" s="4"/>
       <c r="D1010" s="4"/>
-    </row>
-    <row r="1011" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1010" s="9"/>
+    </row>
+    <row r="1011" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1011" s="4"/>
       <c r="B1011" s="4"/>
       <c r="C1011" s="4"/>
       <c r="D1011" s="4"/>
-    </row>
-    <row r="1012" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1011" s="9"/>
+    </row>
+    <row r="1012" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1012" s="4"/>
       <c r="B1012" s="4"/>
       <c r="C1012" s="4"/>
       <c r="D1012" s="4"/>
-    </row>
-    <row r="1013" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1012" s="9"/>
+    </row>
+    <row r="1013" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1013" s="4"/>
       <c r="B1013" s="4"/>
       <c r="C1013" s="4"/>
       <c r="D1013" s="4"/>
-    </row>
-    <row r="1014" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1013" s="9"/>
+    </row>
+    <row r="1014" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1014" s="4"/>
       <c r="B1014" s="4"/>
       <c r="C1014" s="4"/>
       <c r="D1014" s="4"/>
-    </row>
-    <row r="1015" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1014" s="9"/>
+    </row>
+    <row r="1015" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1015" s="4"/>
       <c r="B1015" s="4"/>
       <c r="C1015" s="4"/>
       <c r="D1015" s="4"/>
-    </row>
-    <row r="1016" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1015" s="9"/>
+    </row>
+    <row r="1016" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1016" s="4"/>
       <c r="B1016" s="4"/>
       <c r="C1016" s="4"/>
       <c r="D1016" s="4"/>
-    </row>
-    <row r="1017" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1016" s="9"/>
+    </row>
+    <row r="1017" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1017" s="4"/>
       <c r="B1017" s="4"/>
       <c r="C1017" s="4"/>
       <c r="D1017" s="4"/>
-    </row>
-    <row r="1018" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1017" s="9"/>
+    </row>
+    <row r="1018" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1018" s="4"/>
       <c r="B1018" s="4"/>
       <c r="C1018" s="4"/>
       <c r="D1018" s="4"/>
-    </row>
-    <row r="1019" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1018" s="9"/>
+    </row>
+    <row r="1019" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1019" s="4"/>
       <c r="B1019" s="4"/>
       <c r="C1019" s="4"/>
       <c r="D1019" s="4"/>
-    </row>
-    <row r="1020" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1019" s="9"/>
+    </row>
+    <row r="1020" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1020" s="4"/>
       <c r="B1020" s="4"/>
       <c r="C1020" s="4"/>
       <c r="D1020" s="4"/>
-    </row>
-    <row r="1021" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1020" s="9"/>
+    </row>
+    <row r="1021" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1021" s="4"/>
       <c r="B1021" s="4"/>
       <c r="C1021" s="4"/>
       <c r="D1021" s="4"/>
-    </row>
-    <row r="1022" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1021" s="9"/>
+    </row>
+    <row r="1022" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1022" s="4"/>
       <c r="B1022" s="4"/>
       <c r="C1022" s="4"/>
       <c r="D1022" s="4"/>
+      <c r="E1022" s="9"/>
+    </row>
+    <row r="1023" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1023" s="4"/>
+      <c r="B1023" s="4"/>
+      <c r="C1023" s="4"/>
+      <c r="D1023" s="4"/>
+      <c r="E1023" s="9"/>
+    </row>
+    <row r="1024" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1024" s="4"/>
+      <c r="B1024" s="4"/>
+      <c r="C1024" s="4"/>
+      <c r="D1024" s="4"/>
+      <c r="E1024" s="9"/>
+    </row>
+    <row r="1025" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1025" s="4"/>
+      <c r="B1025" s="4"/>
+      <c r="C1025" s="4"/>
+      <c r="D1025" s="4"/>
+      <c r="E1025" s="9"/>
+    </row>
+    <row r="1026" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1026" s="4"/>
+      <c r="B1026" s="4"/>
+      <c r="C1026" s="4"/>
+      <c r="D1026" s="4"/>
+      <c r="E1026" s="9"/>
+    </row>
+    <row r="1027" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1027" s="4"/>
+      <c r="B1027" s="4"/>
+      <c r="C1027" s="4"/>
+      <c r="D1027" s="4"/>
+      <c r="E1027" s="9"/>
+    </row>
+    <row r="1028" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1028" s="4"/>
+      <c r="B1028" s="4"/>
+      <c r="C1028" s="4"/>
+      <c r="D1028" s="4"/>
+      <c r="E1028" s="9"/>
+    </row>
+    <row r="1029" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1029" s="4"/>
+      <c r="B1029" s="4"/>
+      <c r="C1029" s="4"/>
+      <c r="D1029" s="4"/>
+      <c r="E1029" s="9"/>
+    </row>
+    <row r="1030" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1030" s="4"/>
+      <c r="B1030" s="4"/>
+      <c r="C1030" s="4"/>
+      <c r="D1030" s="4"/>
+      <c r="E1030" s="9"/>
+    </row>
+    <row r="1031" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1031" s="4"/>
+      <c r="B1031" s="4"/>
+      <c r="C1031" s="4"/>
+      <c r="D1031" s="4"/>
+      <c r="E1031" s="9"/>
+    </row>
+    <row r="1032" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1032" s="4"/>
+      <c r="B1032" s="4"/>
+      <c r="C1032" s="4"/>
+      <c r="D1032" s="4"/>
+    </row>
+    <row r="1033" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1033" s="4"/>
+      <c r="B1033" s="4"/>
+      <c r="C1033" s="4"/>
+      <c r="D1033" s="4"/>
+    </row>
+    <row r="1034" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1034" s="4"/>
+      <c r="B1034" s="4"/>
+      <c r="C1034" s="4"/>
+      <c r="D1034" s="4"/>
+    </row>
+    <row r="1035" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1035" s="4"/>
+      <c r="B1035" s="4"/>
+      <c r="C1035" s="4"/>
+      <c r="D1035" s="4"/>
+    </row>
+    <row r="1036" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1036" s="4"/>
+      <c r="B1036" s="4"/>
+      <c r="C1036" s="4"/>
+      <c r="D1036" s="4"/>
+    </row>
+    <row r="1037" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1037" s="4"/>
+      <c r="B1037" s="4"/>
+      <c r="C1037" s="4"/>
+      <c r="D1037" s="4"/>
+    </row>
+    <row r="1038" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1038" s="4"/>
+      <c r="B1038" s="4"/>
+      <c r="C1038" s="4"/>
+      <c r="D1038" s="4"/>
+    </row>
+    <row r="1039" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1039" s="4"/>
+      <c r="B1039" s="4"/>
+      <c r="C1039" s="4"/>
+      <c r="D1039" s="4"/>
+    </row>
+    <row r="1040" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1040" s="4"/>
+      <c r="B1040" s="4"/>
+      <c r="C1040" s="4"/>
+      <c r="D1040" s="4"/>
+    </row>
+    <row r="1041" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1041" s="4"/>
+      <c r="B1041" s="4"/>
+      <c r="C1041" s="4"/>
+      <c r="D1041" s="4"/>
+    </row>
+    <row r="1042" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1042" s="4"/>
+      <c r="B1042" s="4"/>
+      <c r="C1042" s="4"/>
+      <c r="D1042" s="4"/>
+    </row>
+    <row r="1043" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1043" s="4"/>
+      <c r="B1043" s="4"/>
+      <c r="C1043" s="4"/>
+      <c r="D1043" s="4"/>
+    </row>
+    <row r="1044" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1044" s="4"/>
+      <c r="B1044" s="4"/>
+      <c r="C1044" s="4"/>
+      <c r="D1044" s="4"/>
+    </row>
+    <row r="1045" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1045" s="4"/>
+      <c r="B1045" s="4"/>
+      <c r="C1045" s="4"/>
+      <c r="D1045" s="4"/>
+    </row>
+    <row r="1046" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1046" s="4"/>
+      <c r="B1046" s="4"/>
+      <c r="C1046" s="4"/>
+      <c r="D1046" s="4"/>
+    </row>
+    <row r="1047" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1047" s="4"/>
+      <c r="B1047" s="4"/>
+      <c r="C1047" s="4"/>
+      <c r="D1047" s="4"/>
+    </row>
+    <row r="1048" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1048" s="4"/>
+      <c r="B1048" s="4"/>
+      <c r="C1048" s="4"/>
+      <c r="D1048" s="4"/>
+    </row>
+    <row r="1049" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1049" s="4"/>
+      <c r="B1049" s="4"/>
+      <c r="C1049" s="4"/>
+      <c r="D1049" s="4"/>
+    </row>
+    <row r="1050" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1050" s="4"/>
+      <c r="B1050" s="4"/>
+      <c r="C1050" s="4"/>
+      <c r="D1050" s="4"/>
+    </row>
+    <row r="1051" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1051" s="4"/>
+      <c r="B1051" s="4"/>
+      <c r="C1051" s="4"/>
+      <c r="D1051" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>

--- a/dados_5_16_18_GRE.xlsx
+++ b/dados_5_16_18_GRE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="114">
   <si>
     <t>GRE</t>
   </si>
@@ -360,9 +360,6 @@
     <t>HZA-2317</t>
   </si>
   <si>
-    <t>DCP-1236</t>
-  </si>
-  <si>
     <t>JRJ-5917</t>
   </si>
   <si>
@@ -403,6 +400,12 @@
   </si>
   <si>
     <t>NQQ-3877</t>
+  </si>
+  <si>
+    <t>KKQ-9D10</t>
+  </si>
+  <si>
+    <t>DPC-1236</t>
   </si>
 </sst>
 </file>
@@ -1008,10 +1011,10 @@
   <sheetPr>
     <tabColor rgb="FFFF00FF"/>
   </sheetPr>
-  <dimension ref="A1:AD1051"/>
+  <dimension ref="A1:AD1053"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1759,7 +1762,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="E20" s="43" t="s">
         <v>85</v>
@@ -1797,7 +1800,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="E21" s="43" t="s">
         <v>85</v>
@@ -2407,7 +2410,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E37" s="43" t="s">
         <v>84</v>
@@ -2446,7 +2449,7 @@
         <v>11</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E38" s="43" t="s">
         <v>84</v>
@@ -2524,7 +2527,7 @@
         <v>11</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="43" t="s">
         <v>84</v>
@@ -2758,7 +2761,7 @@
         <v>6</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E46" s="43" t="s">
         <v>84</v>
@@ -2797,7 +2800,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E47" s="43" t="s">
         <v>84</v>
@@ -2836,7 +2839,7 @@
         <v>6</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E48" s="43" t="s">
         <v>84</v>
@@ -2875,7 +2878,7 @@
         <v>8</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E49" s="43" t="s">
         <v>84</v>
@@ -3025,16 +3028,16 @@
         <v>64</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="E53" s="43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F53" s="27"/>
       <c r="G53" s="4"/>
@@ -3064,16 +3067,16 @@
         <v>64</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="E54" s="43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F54" s="27"/>
       <c r="G54" s="4"/>
@@ -3106,7 +3109,7 @@
         <v>88</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D55" s="35" t="s">
         <v>68</v>
@@ -3145,10 +3148,10 @@
         <v>88</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E56" s="43" t="s">
         <v>84</v>
@@ -3184,10 +3187,10 @@
         <v>88</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E57" s="43" t="s">
         <v>84</v>
@@ -3225,7 +3228,7 @@
         <v>6</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E58" s="43" t="s">
         <v>84</v>
@@ -3263,7 +3266,7 @@
         <v>8</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E59" s="43" t="s">
         <v>84</v>
@@ -3301,7 +3304,7 @@
         <v>6</v>
       </c>
       <c r="D60" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E60" s="43" t="s">
         <v>84</v>
@@ -3336,10 +3339,10 @@
         <v>88</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E61" s="43" t="s">
         <v>84</v>
@@ -3376,11 +3379,11 @@
       <c r="C62" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E62" s="44" t="s">
-        <v>85</v>
+      <c r="D62" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62" s="43" t="s">
+        <v>84</v>
       </c>
       <c r="F62" s="26"/>
       <c r="G62" s="8"/>
@@ -3412,13 +3415,13 @@
         <v>88</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E63" s="44" t="s">
-        <v>85</v>
+        <v>11</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63" s="43" t="s">
+        <v>84</v>
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="8"/>
@@ -3447,16 +3450,16 @@
         <v>64</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C64" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="E64" s="43" t="s">
-        <v>84</v>
+      <c r="D64" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64" s="44" t="s">
+        <v>85</v>
       </c>
       <c r="F64" s="26"/>
       <c r="G64" s="8"/>
@@ -3485,16 +3488,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C65" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="E65" s="43" t="s">
-        <v>84</v>
+      <c r="D65" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" s="44" t="s">
+        <v>85</v>
       </c>
       <c r="F65" s="26"/>
       <c r="G65" s="8"/>
@@ -3526,7 +3529,7 @@
         <v>89</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D66" s="35" t="s">
         <v>92</v>
@@ -3564,10 +3567,10 @@
         <v>89</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E67" s="43" t="s">
         <v>84</v>
@@ -3602,10 +3605,10 @@
         <v>89</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E68" s="43" t="s">
         <v>84</v>
@@ -3640,13 +3643,13 @@
         <v>89</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="E69" s="44" t="s">
-        <v>85</v>
+        <v>6</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E69" s="43" t="s">
+        <v>84</v>
       </c>
       <c r="F69" s="26"/>
       <c r="G69" s="8"/>
@@ -3675,13 +3678,13 @@
         <v>64</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="36" t="s">
-        <v>75</v>
+        <v>8</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>73</v>
       </c>
       <c r="E70" s="43" t="s">
         <v>84</v>
@@ -3713,16 +3716,16 @@
         <v>64</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="E71" s="43" t="s">
-        <v>84</v>
+        <v>8</v>
+      </c>
+      <c r="D71" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E71" s="44" t="s">
+        <v>85</v>
       </c>
       <c r="F71" s="26"/>
       <c r="G71" s="8"/>
@@ -3751,16 +3754,16 @@
         <v>64</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D72" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="E72" s="44" t="s">
-        <v>85</v>
+        <v>75</v>
+      </c>
+      <c r="E72" s="43" t="s">
+        <v>84</v>
       </c>
       <c r="F72" s="26"/>
       <c r="G72" s="8"/>
@@ -3789,16 +3792,16 @@
         <v>64</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C73" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="E73" s="44" t="s">
-        <v>85</v>
+      <c r="D73" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E73" s="43" t="s">
+        <v>84</v>
       </c>
       <c r="F73" s="26"/>
       <c r="G73" s="8"/>
@@ -3830,13 +3833,13 @@
         <v>91</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="E74" s="43" t="s">
-        <v>84</v>
+        <v>8</v>
+      </c>
+      <c r="D74" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E74" s="44" t="s">
+        <v>85</v>
       </c>
       <c r="F74" s="26"/>
       <c r="G74" s="8"/>
@@ -3871,7 +3874,7 @@
         <v>11</v>
       </c>
       <c r="D75" s="36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E75" s="44" t="s">
         <v>85</v>
@@ -3908,11 +3911,11 @@
       <c r="C76" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="E76" s="44" t="s">
-        <v>85</v>
+      <c r="D76" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E76" s="43" t="s">
+        <v>84</v>
       </c>
       <c r="F76" s="26"/>
       <c r="G76" s="8"/>
@@ -3944,13 +3947,13 @@
         <v>91</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="E77" s="43" t="s">
-        <v>84</v>
+        <v>11</v>
+      </c>
+      <c r="D77" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E77" s="44" t="s">
+        <v>85</v>
       </c>
       <c r="F77" s="26"/>
       <c r="G77" s="8"/>
@@ -3982,13 +3985,13 @@
         <v>91</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="E78" s="43" t="s">
-        <v>84</v>
+        <v>11</v>
+      </c>
+      <c r="D78" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E78" s="44" t="s">
+        <v>85</v>
       </c>
       <c r="F78" s="26"/>
       <c r="G78" s="8"/>
@@ -4020,7 +4023,7 @@
         <v>91</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D79" s="35" t="s">
         <v>81</v>
@@ -4061,7 +4064,7 @@
         <v>8</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E80" s="43" t="s">
         <v>84</v>
@@ -4089,20 +4092,20 @@
       <c r="Z80" s="4"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="37" t="s">
-        <v>104</v>
+      <c r="A81" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="35" t="s">
+        <v>81</v>
       </c>
       <c r="E81" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F81" s="26"/>
       <c r="G81" s="8"/>
@@ -4127,20 +4130,20 @@
       <c r="Z81" s="4"/>
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C82" s="16" t="s">
+      <c r="A82" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="37" t="s">
-        <v>104</v>
+      <c r="D82" s="35" t="s">
+        <v>82</v>
       </c>
       <c r="E82" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F82" s="26"/>
       <c r="G82" s="8"/>
@@ -4175,10 +4178,10 @@
         <v>6</v>
       </c>
       <c r="D83" s="37" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="E83" s="43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F83" s="26"/>
       <c r="G83" s="8"/>
@@ -4212,11 +4215,11 @@
       <c r="C84" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="38" t="s">
-        <v>35</v>
+      <c r="D84" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="E84" s="43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F84" s="26"/>
       <c r="G84" s="8"/>
@@ -4244,14 +4247,14 @@
       <c r="A85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="17" t="s">
+      <c r="C85" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D85" s="39" t="s">
-        <v>36</v>
+      <c r="D85" s="37" t="s">
+        <v>35</v>
       </c>
       <c r="E85" s="43" t="s">
         <v>84</v>
@@ -4285,11 +4288,11 @@
       <c r="B86" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C86" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D86" s="39" t="s">
-        <v>36</v>
+      <c r="D86" s="38" t="s">
+        <v>35</v>
       </c>
       <c r="E86" s="43" t="s">
         <v>84</v>
@@ -4327,10 +4330,10 @@
         <v>6</v>
       </c>
       <c r="D87" s="39" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="E87" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F87" s="26"/>
       <c r="G87" s="8"/>
@@ -4365,10 +4368,10 @@
         <v>8</v>
       </c>
       <c r="D88" s="39" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="E88" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F88" s="26"/>
       <c r="G88" s="8"/>
@@ -4403,10 +4406,10 @@
         <v>6</v>
       </c>
       <c r="D89" s="39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E89" s="43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F89" s="26"/>
       <c r="G89" s="8"/>
@@ -4441,10 +4444,10 @@
         <v>8</v>
       </c>
       <c r="D90" s="39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E90" s="43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F90" s="26"/>
       <c r="G90" s="8"/>
@@ -4475,11 +4478,11 @@
       <c r="B91" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C91" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D91" s="38" t="s">
-        <v>37</v>
+      <c r="D91" s="39" t="s">
+        <v>105</v>
       </c>
       <c r="E91" s="43" t="s">
         <v>84</v>
@@ -4516,8 +4519,8 @@
       <c r="C92" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D92" s="38" t="s">
-        <v>37</v>
+      <c r="D92" s="39" t="s">
+        <v>105</v>
       </c>
       <c r="E92" s="43" t="s">
         <v>84</v>
@@ -4551,8 +4554,8 @@
       <c r="B93" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C93" s="17" t="s">
-        <v>11</v>
+      <c r="C93" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="D93" s="38" t="s">
         <v>37</v>
@@ -4586,14 +4589,14 @@
       <c r="A94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B94" s="18" t="s">
-        <v>38</v>
+      <c r="B94" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="39" t="s">
-        <v>39</v>
+        <v>8</v>
+      </c>
+      <c r="D94" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="E94" s="43" t="s">
         <v>84</v>
@@ -4624,14 +4627,14 @@
       <c r="A95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B95" s="18" t="s">
-        <v>40</v>
+      <c r="B95" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="39" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="D95" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="E95" s="43" t="s">
         <v>84</v>
@@ -4663,13 +4666,13 @@
         <v>33</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="38" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="E96" s="43" t="s">
         <v>84</v>
@@ -4701,13 +4704,13 @@
         <v>33</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" s="38" t="s">
-        <v>93</v>
+        <v>40</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="E97" s="43" t="s">
         <v>84</v>
@@ -4739,13 +4742,13 @@
         <v>33</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C98" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C98" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D98" s="38" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="E98" s="43" t="s">
         <v>84</v>
@@ -4779,11 +4782,11 @@
       <c r="B99" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C99" s="17" t="s">
-        <v>8</v>
+      <c r="C99" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="D99" s="38" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E99" s="43" t="s">
         <v>84</v>
@@ -4815,13 +4818,13 @@
         <v>33</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>6</v>
+        <v>38</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>8</v>
       </c>
       <c r="D100" s="38" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="E100" s="43" t="s">
         <v>84</v>
@@ -4852,14 +4855,14 @@
       <c r="A101" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B101" s="19" t="s">
-        <v>45</v>
+      <c r="B101" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="C101" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="38" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="E101" s="43" t="s">
         <v>84</v>
@@ -4891,13 +4894,13 @@
         <v>33</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="39" t="s">
-        <v>47</v>
+      <c r="D102" s="38" t="s">
+        <v>44</v>
       </c>
       <c r="E102" s="43" t="s">
         <v>84</v>
@@ -4934,8 +4937,8 @@
       <c r="C103" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="39" t="s">
-        <v>47</v>
+      <c r="D103" s="38" t="s">
+        <v>44</v>
       </c>
       <c r="E103" s="43" t="s">
         <v>84</v>
@@ -4966,14 +4969,14 @@
       <c r="A104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B104" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D104" s="40" t="s">
-        <v>107</v>
+      <c r="B104" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="39" t="s">
+        <v>47</v>
       </c>
       <c r="E104" s="43" t="s">
         <v>84</v>
@@ -5009,16 +5012,16 @@
         <v>33</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D105" s="40" t="s">
-        <v>108</v>
+        <v>45</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="39" t="s">
+        <v>47</v>
       </c>
       <c r="E105" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="8"/>
@@ -5057,10 +5060,10 @@
         <v>11</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E106" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="8"/>
@@ -5099,10 +5102,10 @@
         <v>6</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="E107" s="43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="8"/>
@@ -5133,14 +5136,14 @@
       <c r="B108" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C108" s="11" t="s">
-        <v>8</v>
+      <c r="C108" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="E108" s="43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="8"/>
@@ -5171,8 +5174,8 @@
       <c r="B109" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C109" s="16" t="s">
-        <v>11</v>
+      <c r="C109" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="D109" s="40" t="s">
         <v>49</v>
@@ -5209,11 +5212,11 @@
       <c r="B110" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C110" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D110" s="41" t="s">
-        <v>50</v>
+      <c r="C110" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="40" t="s">
+        <v>49</v>
       </c>
       <c r="E110" s="43" t="s">
         <v>84</v>
@@ -5248,10 +5251,10 @@
         <v>48</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="41" t="s">
-        <v>50</v>
+        <v>11</v>
+      </c>
+      <c r="D111" s="40" t="s">
+        <v>49</v>
       </c>
       <c r="E111" s="43" t="s">
         <v>84</v>
@@ -5286,7 +5289,7 @@
         <v>48</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D112" s="41" t="s">
         <v>50</v>
@@ -5323,11 +5326,11 @@
       <c r="B113" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C113" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D113" s="38" t="s">
-        <v>51</v>
+      <c r="C113" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="41" t="s">
+        <v>50</v>
       </c>
       <c r="E113" s="43" t="s">
         <v>84</v>
@@ -5364,8 +5367,8 @@
       <c r="C114" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D114" s="38" t="s">
-        <v>51</v>
+      <c r="D114" s="41" t="s">
+        <v>50</v>
       </c>
       <c r="E114" s="43" t="s">
         <v>84</v>
@@ -5402,8 +5405,8 @@
       <c r="C115" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D115" s="40" t="s">
-        <v>52</v>
+      <c r="D115" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="E115" s="43" t="s">
         <v>84</v>
@@ -5440,8 +5443,8 @@
       <c r="C116" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D116" s="40" t="s">
-        <v>52</v>
+      <c r="D116" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="E116" s="43" t="s">
         <v>84</v>
@@ -5472,14 +5475,14 @@
       <c r="A117" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B117" s="20" t="s">
-        <v>53</v>
+      <c r="B117" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D117" s="38" t="s">
-        <v>54</v>
+        <v>6</v>
+      </c>
+      <c r="D117" s="40" t="s">
+        <v>52</v>
       </c>
       <c r="E117" s="43" t="s">
         <v>84</v>
@@ -5510,17 +5513,17 @@
       <c r="A118" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B118" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" s="38" t="s">
-        <v>109</v>
+      <c r="B118" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="40" t="s">
+        <v>52</v>
       </c>
       <c r="E118" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="8"/>
@@ -5549,13 +5552,13 @@
         <v>33</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D119" s="42" t="s">
-        <v>110</v>
+        <v>8</v>
+      </c>
+      <c r="D119" s="38" t="s">
+        <v>54</v>
       </c>
       <c r="E119" s="43" t="s">
         <v>84</v>
@@ -5587,16 +5590,16 @@
         <v>33</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C120" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C120" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D120" s="42" t="s">
-        <v>110</v>
+      <c r="D120" s="38" t="s">
+        <v>108</v>
       </c>
       <c r="E120" s="43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="8"/>
@@ -5627,11 +5630,11 @@
       <c r="B121" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C121" s="16" t="s">
-        <v>11</v>
+      <c r="C121" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="D121" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E121" s="43" t="s">
         <v>84</v>
@@ -5669,10 +5672,10 @@
         <v>8</v>
       </c>
       <c r="D122" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E122" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F122" s="4"/>
       <c r="G122" s="8"/>
@@ -5703,11 +5706,11 @@
       <c r="B123" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C123" s="17" t="s">
-        <v>26</v>
+      <c r="C123" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D123" s="42" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="E123" s="43" t="s">
         <v>84</v>
@@ -5745,10 +5748,10 @@
         <v>8</v>
       </c>
       <c r="D124" s="42" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="8"/>
@@ -5780,13 +5783,13 @@
         <v>55</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D125" s="42" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="E125" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="8"/>
@@ -5821,7 +5824,7 @@
         <v>8</v>
       </c>
       <c r="D126" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E126" s="43" t="s">
         <v>84</v>
@@ -5852,17 +5855,17 @@
       <c r="A127" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B127" s="21" t="s">
-        <v>58</v>
+      <c r="B127" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="C127" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D127" s="39" t="s">
-        <v>59</v>
+      <c r="D127" s="42" t="s">
+        <v>111</v>
       </c>
       <c r="E127" s="43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F127" s="4"/>
       <c r="G127" s="8"/>
@@ -5890,14 +5893,14 @@
       <c r="A128" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B128" s="21" t="s">
-        <v>58</v>
+      <c r="B128" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="C128" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D128" s="39" t="s">
-        <v>60</v>
+      <c r="D128" s="42" t="s">
+        <v>57</v>
       </c>
       <c r="E128" s="43" t="s">
         <v>84</v>
@@ -5935,7 +5938,7 @@
         <v>8</v>
       </c>
       <c r="D129" s="39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E129" s="43" t="s">
         <v>84</v>
@@ -5963,11 +5966,21 @@
       <c r="Z129" s="4"/>
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="9"/>
+      <c r="A130" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B130" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E130" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="F130" s="4"/>
       <c r="G130" s="8"/>
       <c r="H130" s="4"/>
@@ -5991,11 +6004,21 @@
       <c r="Z130" s="4"/>
     </row>
     <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="9"/>
+      <c r="A131" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E131" s="43" t="s">
+        <v>84</v>
+      </c>
       <c r="F131" s="4"/>
       <c r="G131" s="8"/>
       <c r="H131" s="4"/>
@@ -30304,12 +30327,14 @@
       <c r="B1032" s="4"/>
       <c r="C1032" s="4"/>
       <c r="D1032" s="4"/>
+      <c r="E1032" s="9"/>
     </row>
     <row r="1033" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1033" s="4"/>
       <c r="B1033" s="4"/>
       <c r="C1033" s="4"/>
       <c r="D1033" s="4"/>
+      <c r="E1033" s="9"/>
     </row>
     <row r="1034" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1034" s="4"/>
@@ -30419,6 +30444,18 @@
       <c r="C1051" s="4"/>
       <c r="D1051" s="4"/>
     </row>
+    <row r="1052" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1052" s="4"/>
+      <c r="B1052" s="4"/>
+      <c r="C1052" s="4"/>
+      <c r="D1052" s="4"/>
+    </row>
+    <row r="1053" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1053" s="4"/>
+      <c r="B1053" s="4"/>
+      <c r="C1053" s="4"/>
+      <c r="D1053" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
